--- a/Dataset/202405-citibike-tripdata_1.xlsx
+++ b/Dataset/202405-citibike-tripdata_1.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bike-Sharing-Simulation\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5438FBF-0D39-4DA1-A27B-881943AC6895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416933B-4887-4344-B8A0-CA1B96DA0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{4BFBC1A2-ECC6-4D9C-B4F2-4C9674A1DBB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{AD6143DE-A902-4B58-8481-1850D1AFC164}"/>
   </bookViews>
   <sheets>
     <sheet name="202405-citibike-tripdata_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="242">
   <si>
     <t>started_at</t>
   </si>
@@ -82,18 +95,12 @@
     <t>E 47 St &amp; 1 Ave</t>
   </si>
   <si>
-    <t>62 St &amp; Northern Blvd</t>
-  </si>
-  <si>
     <t>Graham Ave &amp; Withers St</t>
   </si>
   <si>
     <t>Bayard St &amp; Leonard St</t>
   </si>
   <si>
-    <t>E 9 St &amp; Ave C</t>
-  </si>
-  <si>
     <t>Front St &amp; Gold St</t>
   </si>
   <si>
@@ -121,21 +128,9 @@
     <t>Cortelyou Rd &amp; Argyle Rd</t>
   </si>
   <si>
-    <t>Pier 40 - Hudson River Park</t>
-  </si>
-  <si>
-    <t>52 St &amp; 6 Ave</t>
-  </si>
-  <si>
     <t>Adam Clayton Powell Blvd &amp; W 118 St</t>
   </si>
   <si>
-    <t>Riverside Dr &amp; W 104 St</t>
-  </si>
-  <si>
-    <t>Sterling Pl &amp; Rochester Ave</t>
-  </si>
-  <si>
     <t>Berkeley Pl &amp; 7 Ave</t>
   </si>
   <si>
@@ -241,18 +236,6 @@
     <t>E 43 St &amp; Madison Ave</t>
   </si>
   <si>
-    <t>E 40 St &amp; Park Ave</t>
-  </si>
-  <si>
-    <t>Frederick Douglass Blvd &amp; W 117 St</t>
-  </si>
-  <si>
-    <t>Riverside Dr &amp; W 72 St</t>
-  </si>
-  <si>
-    <t>2 Ave &amp; E 99 St</t>
-  </si>
-  <si>
     <t>Suydam St &amp; St Nicholas Ave</t>
   </si>
   <si>
@@ -292,45 +275,9 @@
     <t>River Ave &amp; McClellan St</t>
   </si>
   <si>
-    <t>Washington St &amp; Laight St</t>
-  </si>
-  <si>
-    <t>7 Ave &amp; Park Pl</t>
-  </si>
-  <si>
-    <t>E 89 St &amp; York Ave</t>
-  </si>
-  <si>
     <t>Greenpoint Ave &amp; West St</t>
   </si>
   <si>
-    <t>E 51 St &amp; 2 Ave</t>
-  </si>
-  <si>
-    <t>E 56 St &amp; 3 Ave</t>
-  </si>
-  <si>
-    <t>Henry St &amp; Grand St</t>
-  </si>
-  <si>
-    <t>E 47 St &amp; 2 Ave</t>
-  </si>
-  <si>
-    <t>Powers St &amp; Olive St</t>
-  </si>
-  <si>
-    <t>E 85 St &amp; 3 Ave</t>
-  </si>
-  <si>
-    <t>W 84 St &amp; Columbus Ave</t>
-  </si>
-  <si>
-    <t>Broadway &amp; Berry St</t>
-  </si>
-  <si>
-    <t>W 192 St &amp; University Ave</t>
-  </si>
-  <si>
     <t>Manhattan Ave &amp; Leonard St</t>
   </si>
   <si>
@@ -340,15 +287,9 @@
     <t>Stockholm St &amp; Wilson Ave</t>
   </si>
   <si>
-    <t>Pike St &amp; Monroe St</t>
-  </si>
-  <si>
     <t>1 Ave &amp; E 94 St</t>
   </si>
   <si>
-    <t>E 75 St &amp; 3 Ave</t>
-  </si>
-  <si>
     <t>10 St &amp; 4 Ave</t>
   </si>
   <si>
@@ -358,9 +299,6 @@
     <t>Picnic Point</t>
   </si>
   <si>
-    <t>West End Ave &amp; W 94 St</t>
-  </si>
-  <si>
     <t>75 St &amp; Roosevelt Ave</t>
   </si>
   <si>
@@ -370,9 +308,6 @@
     <t>Carroll St &amp; 5 Ave</t>
   </si>
   <si>
-    <t>7 St &amp; 5 Ave</t>
-  </si>
-  <si>
     <t>W 25 St &amp; 9 Ave</t>
   </si>
   <si>
@@ -395,12 +330,444 @@
   </si>
   <si>
     <t>16 St &amp; 4 Ave</t>
+  </si>
+  <si>
+    <t>Central Ave &amp; Melrose St</t>
+  </si>
+  <si>
+    <t>Willoughby Ave &amp; Onderdonk Ave</t>
+  </si>
+  <si>
+    <t>Lexington Ave &amp; Stuyvesant Ave</t>
+  </si>
+  <si>
+    <t>44 St &amp; Greenpoint Ave</t>
+  </si>
+  <si>
+    <t>Harman St &amp; Seneca Ave</t>
+  </si>
+  <si>
+    <t>University Ave &amp; Macombs Rd</t>
+  </si>
+  <si>
+    <t>Madison Ave &amp; E 51 St</t>
+  </si>
+  <si>
+    <t>Lewis Ave &amp; Fulton St</t>
+  </si>
+  <si>
+    <t>6 Ave &amp; Canal St</t>
+  </si>
+  <si>
+    <t>Hudson St &amp; Reade St</t>
+  </si>
+  <si>
+    <t>S 3 St &amp; Bedford Ave</t>
+  </si>
+  <si>
+    <t>E Houston St &amp; Columbia St</t>
+  </si>
+  <si>
+    <t>Stanton St &amp; Norfolk St</t>
+  </si>
+  <si>
+    <t>46 St &amp; 25 Ave</t>
+  </si>
+  <si>
+    <t>30 Ave &amp; 41 St</t>
+  </si>
+  <si>
+    <t>Norfolk St &amp; Broome St</t>
+  </si>
+  <si>
+    <t>Van Buren St &amp; Broadway</t>
+  </si>
+  <si>
+    <t>Rockaway Ave &amp; Bainbridge St</t>
+  </si>
+  <si>
+    <t>E 2 St &amp; 2 Ave</t>
+  </si>
+  <si>
+    <t>E 14 St &amp; 1 Ave</t>
+  </si>
+  <si>
+    <t>34 Ave &amp; 89 St</t>
+  </si>
+  <si>
+    <t>Lexington Ave &amp; E 36 St</t>
+  </si>
+  <si>
+    <t>Ave C &amp; E 16 St</t>
+  </si>
+  <si>
+    <t>Inwood Ave &amp; W 170 St</t>
+  </si>
+  <si>
+    <t>St Marks Pl &amp; 2 Ave</t>
+  </si>
+  <si>
+    <t>Central Park North &amp; Adam Clayton Powell Blvd</t>
+  </si>
+  <si>
+    <t>E 91 St &amp; 2 Ave</t>
+  </si>
+  <si>
+    <t>W 13 St &amp; 5 Ave</t>
+  </si>
+  <si>
+    <t>84 St &amp; Roosevelt Ave</t>
+  </si>
+  <si>
+    <t>E 178 St &amp; Monterey Ave</t>
+  </si>
+  <si>
+    <t>E 142 St &amp; 3 Ave</t>
+  </si>
+  <si>
+    <t>55 St &amp; 7 Ave</t>
+  </si>
+  <si>
+    <t>Ocean Ave &amp; Crooke Ave</t>
+  </si>
+  <si>
+    <t>Flushing Ave &amp; Woodward Ave</t>
+  </si>
+  <si>
+    <t>Butler St &amp; Court St</t>
+  </si>
+  <si>
+    <t>West End Ave &amp; W 107 St</t>
+  </si>
+  <si>
+    <t>E 11 St &amp; Ave B</t>
+  </si>
+  <si>
+    <t>W 24 St &amp; 7 Ave</t>
+  </si>
+  <si>
+    <t>Elmhurst Ave &amp; Forley St</t>
+  </si>
+  <si>
+    <t>Maurice Ave &amp; 53 Dr</t>
+  </si>
+  <si>
+    <t>39 St &amp; 47 Ave</t>
+  </si>
+  <si>
+    <t>41 Ave &amp; 67 St</t>
+  </si>
+  <si>
+    <t>Cathedral Pkwy &amp; Broadway</t>
+  </si>
+  <si>
+    <t>W 17 St &amp; 7 Ave</t>
+  </si>
+  <si>
+    <t>1 Ave &amp; E 110 St</t>
+  </si>
+  <si>
+    <t>2 Ave &amp; E 96 St</t>
+  </si>
+  <si>
+    <t>Madison St &amp; Seneca Ave</t>
+  </si>
+  <si>
+    <t>Grand Ave &amp; Remsen Pl</t>
+  </si>
+  <si>
+    <t>3 Ave &amp; Franklin Ave</t>
+  </si>
+  <si>
+    <t>E 106 St &amp; 1 Ave</t>
+  </si>
+  <si>
+    <t>Audubon Ave &amp; W 179 St</t>
+  </si>
+  <si>
+    <t>W 159 St &amp; Edgecombe Ave</t>
+  </si>
+  <si>
+    <t>E 10 St &amp; 2 Ave</t>
+  </si>
+  <si>
+    <t>E 25 St &amp; 1 Ave</t>
+  </si>
+  <si>
+    <t>72 St &amp; Northern Blvd</t>
+  </si>
+  <si>
+    <t>Benham St &amp; Roosevelt Ave</t>
+  </si>
+  <si>
+    <t>Mott St &amp; Prince St</t>
+  </si>
+  <si>
+    <t>33 St &amp; Queens Blvd</t>
+  </si>
+  <si>
+    <t>Anthony Ave &amp; E 175 St</t>
+  </si>
+  <si>
+    <t>Tinton Ave &amp; E 165 St</t>
+  </si>
+  <si>
+    <t>1 St &amp; 6 Ave</t>
+  </si>
+  <si>
+    <t>Valentine Ave &amp; E 183 St</t>
+  </si>
+  <si>
+    <t>Ocean Ave &amp; Tennis Ct</t>
+  </si>
+  <si>
+    <t>New York Ave &amp; Snyder Ave</t>
+  </si>
+  <si>
+    <t>55 St &amp; 5 Ave</t>
+  </si>
+  <si>
+    <t>Eastern Pkwy &amp; Ralph Ave</t>
+  </si>
+  <si>
+    <t>47 Ave &amp; 109 St</t>
+  </si>
+  <si>
+    <t>Broadway &amp; W 133 St</t>
+  </si>
+  <si>
+    <t>Amsterdam Ave &amp; W 125 St</t>
+  </si>
+  <si>
+    <t>31 St &amp; Astoria Blvd</t>
+  </si>
+  <si>
+    <t>8 St &amp; Astoria Blvd</t>
+  </si>
+  <si>
+    <t>3 Ave &amp; E 109 St</t>
+  </si>
+  <si>
+    <t>E 171 St &amp; 3 Ave</t>
+  </si>
+  <si>
+    <t>Macombs Pl &amp; W 152 St</t>
+  </si>
+  <si>
+    <t>3 Ave &amp; E 62 St</t>
+  </si>
+  <si>
+    <t>Marion Ave &amp; Mosholu Pkwy</t>
+  </si>
+  <si>
+    <t>E 77 St &amp; 1 Ave</t>
+  </si>
+  <si>
+    <t>40 Ave &amp; 9 St</t>
+  </si>
+  <si>
+    <t>Vernon Blvd &amp; 41 Rd</t>
+  </si>
+  <si>
+    <t>Queens Blvd &amp; 56 Ave</t>
+  </si>
+  <si>
+    <t>Park Circle &amp; East Dr</t>
+  </si>
+  <si>
+    <t>Caton Ave &amp; E 7 St</t>
+  </si>
+  <si>
+    <t>Lexington Ave &amp; E 120 St</t>
+  </si>
+  <si>
+    <t>Broadway &amp; Moylan Pl</t>
+  </si>
+  <si>
+    <t>4 Ave &amp; 3 St</t>
+  </si>
+  <si>
+    <t>Clinton St &amp; Union St</t>
+  </si>
+  <si>
+    <t>6 Ave &amp; W 34 St</t>
+  </si>
+  <si>
+    <t>E 35 St &amp; Madison Ave</t>
+  </si>
+  <si>
+    <t>Riverside Dr &amp; W 91 St</t>
+  </si>
+  <si>
+    <t>W 133 St &amp; 12 Ave</t>
+  </si>
+  <si>
+    <t>Park Pl &amp; Church St</t>
+  </si>
+  <si>
+    <t>64 St &amp; 51 Ave</t>
+  </si>
+  <si>
+    <t>61 St &amp; 39 Ave</t>
+  </si>
+  <si>
+    <t>56 Ave &amp; 92 St</t>
+  </si>
+  <si>
+    <t>92 St &amp; 37 Ave</t>
+  </si>
+  <si>
+    <t>Steinway St &amp; Ditmars Blvd</t>
+  </si>
+  <si>
+    <t>31 Ave &amp; 103 St</t>
+  </si>
+  <si>
+    <t>St Nicholas Ave &amp; W 126 St</t>
+  </si>
+  <si>
+    <t>Hudson Blvd W &amp; W 36 St</t>
+  </si>
+  <si>
+    <t>3 Ave &amp; E 174 St</t>
+  </si>
+  <si>
+    <t>Jerome Ave &amp; E 181 St</t>
+  </si>
+  <si>
+    <t>Davidson Ave &amp; W Burnside Ave</t>
+  </si>
+  <si>
+    <t>Buchanan Pl &amp; Grand Ave</t>
+  </si>
+  <si>
+    <t>Pioneer St &amp; Richards St</t>
+  </si>
+  <si>
+    <t>60 St &amp; 37 Ave</t>
+  </si>
+  <si>
+    <t>Prospect Ave &amp; E 151 St</t>
+  </si>
+  <si>
+    <t>Prospect Ave &amp; Longwood Ave</t>
+  </si>
+  <si>
+    <t>E 161 St &amp; River Ave</t>
+  </si>
+  <si>
+    <t>Queens Blvd &amp; Broadway</t>
+  </si>
+  <si>
+    <t>Lenox Ave &amp; W 130 St</t>
+  </si>
+  <si>
+    <t>Cypress Hills St &amp; Otto Rd</t>
+  </si>
+  <si>
+    <t>43 Ave &amp; 40 St</t>
+  </si>
+  <si>
+    <t>Grand Concourse &amp; E 205 St</t>
+  </si>
+  <si>
+    <t>Dyckman St &amp; 10 Ave</t>
+  </si>
+  <si>
+    <t>Nagle Ave &amp; Thayer St</t>
+  </si>
+  <si>
+    <t>14 St &amp; 5 Ave</t>
+  </si>
+  <si>
+    <t>41 St &amp; 4 Ave</t>
+  </si>
+  <si>
+    <t>Bleecker St &amp; Forest Ave</t>
+  </si>
+  <si>
+    <t>60 Pl &amp; Bleecker St</t>
+  </si>
+  <si>
+    <t>Forley St &amp; Lamont Ave</t>
+  </si>
+  <si>
+    <t>Bedford Ave &amp; Beverley Rd</t>
+  </si>
+  <si>
+    <t>Audubon Ave &amp; Fort George Ave</t>
+  </si>
+  <si>
+    <t>74 St &amp; 37 Ave</t>
+  </si>
+  <si>
+    <t>W Fordham Rd &amp; Loring Pl N</t>
+  </si>
+  <si>
+    <t>10 Ave &amp; W 204 St</t>
+  </si>
+  <si>
+    <t>Lorimer St &amp; Broadway</t>
+  </si>
+  <si>
+    <t>Irving Ave &amp; Harman St</t>
+  </si>
+  <si>
+    <t>N Moore St &amp; Hudson St</t>
+  </si>
+  <si>
+    <t>New York Ave &amp; Lenox Rd</t>
+  </si>
+  <si>
+    <t>Church Ave &amp; E 45 St</t>
+  </si>
+  <si>
+    <t>E 106 St &amp; Madison Ave</t>
+  </si>
+  <si>
+    <t>Frost St &amp; Meeker Ave</t>
+  </si>
+  <si>
+    <t>31 St &amp; Northern Blvd</t>
+  </si>
+  <si>
+    <t>Bank St &amp; Washington St</t>
+  </si>
+  <si>
+    <t>E 54 St &amp; 1 Ave</t>
+  </si>
+  <si>
+    <t>48 St &amp; Broadway</t>
+  </si>
+  <si>
+    <t>Madison St &amp; Malcolm X Blvd</t>
+  </si>
+  <si>
+    <t>E 19 St &amp; 3 Ave</t>
+  </si>
+  <si>
+    <t>Roosevelt Island Tramway</t>
+  </si>
+  <si>
+    <t>Broadway &amp; W 185 St</t>
+  </si>
+  <si>
+    <t>Corona Ave &amp; 111 St</t>
+  </si>
+  <si>
+    <t>E 138 St &amp; 5 Ave</t>
+  </si>
+  <si>
+    <t>9 Ave &amp; W 204 St</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,7 +1247,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,19 +1314,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FF4B04F-77D6-4A30-B910-0DDEC5741F77}" name="Table1" displayName="Table1" ref="A1:J150" totalsRowShown="0">
-  <autoFilter ref="A1:J150" xr:uid="{2FF4B04F-77D6-4A30-B910-0DDEC5741F77}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1BA0F3E-B139-4379-8910-E67440BE548C}" name="Table1" displayName="Table1" ref="A1:J150" totalsRowShown="0">
+  <autoFilter ref="A1:J150" xr:uid="{E1BA0F3E-B139-4379-8910-E67440BE548C}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{080C5206-F2CA-4B59-B449-4DC20B9F596E}" name="started_at" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D6521D9C-2774-4687-9474-B4787B5126DC}" name="ended_at" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{AA3B1A81-D723-4DCD-A044-BA2CEAF47B13}" name="start_station_name"/>
-    <tableColumn id="6" xr3:uid="{31E0B541-79BB-47C5-B84D-65AFF392F8C0}" name="start_station_id"/>
-    <tableColumn id="7" xr3:uid="{3C99C625-DA02-48D4-9E60-3586EC0D1082}" name="end_station_name"/>
-    <tableColumn id="8" xr3:uid="{D3860F47-FCE9-4F23-AF8A-6B7517591668}" name="end_station_id"/>
-    <tableColumn id="9" xr3:uid="{A072DA5A-9EAA-4943-9718-246AC3350B60}" name="start_lat"/>
-    <tableColumn id="10" xr3:uid="{70ED632F-D47F-4FD4-99AD-9245703789C9}" name="start_lng"/>
-    <tableColumn id="11" xr3:uid="{7AAD5435-2D9D-43FB-B5F5-F07389EB64E5}" name="end_lat"/>
-    <tableColumn id="12" xr3:uid="{3DDE9BBB-FB9F-43ED-AC43-4894E5663965}" name="end_lng"/>
+    <tableColumn id="3" xr3:uid="{84274A4A-41A9-4A17-BB26-6A72942C31BB}" name="started_at" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8804BDFB-41EE-47C6-A63F-5A6165369FB1}" name="ended_at" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{6F16DFD5-5460-4FA8-BF1F-381A6EE90248}" name="start_station_name"/>
+    <tableColumn id="6" xr3:uid="{B0801CAC-AD50-46DD-A321-B10EDD5914D3}" name="start_station_id"/>
+    <tableColumn id="7" xr3:uid="{27F9B6B2-F925-4F6D-B1F4-CD4400D8BCB2}" name="end_station_name"/>
+    <tableColumn id="8" xr3:uid="{49649BC6-15CC-4E80-9381-6D727B304848}" name="end_station_id"/>
+    <tableColumn id="9" xr3:uid="{0FBC0621-6C00-46BC-BE94-B59ACB8475E2}" name="start_lat"/>
+    <tableColumn id="10" xr3:uid="{F1D95F87-6030-42A2-B406-1CFE4555FA8F}" name="start_lng"/>
+    <tableColumn id="11" xr3:uid="{70E15F39-36AD-4FED-9680-FF31374920DF}" name="end_lat"/>
+    <tableColumn id="12" xr3:uid="{A243D8B1-5D4B-4792-84B1-8B882FA4B457}" name="end_lng"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,18 +1648,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0113096-EC3A-44BF-80DF-27A18CA75731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A170B42-74C2-4EA0-BF85-FBB4B0CB961C}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
@@ -1367,10 +1734,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45422.625069444446</v>
+        <v>45413.379085648099</v>
       </c>
       <c r="B3" s="1">
-        <v>45422.631226851852</v>
+        <v>45413.385578703703</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1399,10 +1766,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45418.519895833335</v>
+        <v>45413.4207523148</v>
       </c>
       <c r="B4" s="1">
-        <v>45418.524548611109</v>
+        <v>45413.427245370403</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1431,4674 +1798,4674 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45441.655289351853</v>
+        <v>45413.4624189815</v>
       </c>
       <c r="B5" s="1">
-        <v>45441.65934027778</v>
+        <v>45413.468912037002</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>6079.03</v>
+        <v>4428.0200000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>6464.08</v>
+        <v>4971.01</v>
       </c>
       <c r="G5">
-        <v>40.741443869999998</v>
+        <v>40.687534059999997</v>
       </c>
       <c r="H5">
-        <v>-73.975360820000006</v>
+        <v>-73.972651830000004</v>
       </c>
       <c r="I5">
-        <v>40.752554340000003</v>
+        <v>40.704875999999999</v>
       </c>
       <c r="J5">
-        <v>-73.972826249999997</v>
+        <v>-73.919910999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45422.726006944446</v>
+        <v>45413.504085648099</v>
       </c>
       <c r="B6" s="1">
-        <v>45422.737245370372</v>
+        <v>45413.510578703703</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>6079.03</v>
+        <v>6498.09</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>6953.08</v>
+        <v>6464.08</v>
       </c>
       <c r="G6">
-        <v>40.741602421000003</v>
+        <v>40.752155303999999</v>
       </c>
       <c r="H6">
-        <v>-73.975315213000002</v>
+        <v>-73.968003154000002</v>
       </c>
       <c r="I6">
-        <v>40.768973799999998</v>
+        <v>40.752554340000003</v>
       </c>
       <c r="J6">
-        <v>-73.954822730000004</v>
+        <v>-73.972826249999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45443.675543981481</v>
+        <v>45413.5457523148</v>
       </c>
       <c r="B7" s="1">
-        <v>45443.694837962961</v>
+        <v>45413.552245370403</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>4428.0200000000004</v>
+        <v>5403.04</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>4971.01</v>
+        <v>5442.05</v>
       </c>
       <c r="G7">
-        <v>40.687534059999997</v>
+        <v>40.716981099999998</v>
       </c>
       <c r="H7">
-        <v>-73.972651830000004</v>
+        <v>-73.944859179999995</v>
       </c>
       <c r="I7">
-        <v>40.704875999999999</v>
+        <v>40.719155716960401</v>
       </c>
       <c r="J7">
-        <v>-73.919910999999999</v>
+        <v>-73.948853909969301</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45440.597534722219</v>
+        <v>45413.5874189815</v>
       </c>
       <c r="B8" s="1">
-        <v>45440.598738425928</v>
+        <v>45413.593912037002</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>6498.09</v>
+        <v>4927.04</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>6464.08</v>
+        <v>4903.09</v>
       </c>
       <c r="G8">
-        <v>40.752155303999999</v>
+        <v>40.702242136000002</v>
       </c>
       <c r="H8">
-        <v>-73.968003154000002</v>
+        <v>-73.982254267000002</v>
       </c>
       <c r="I8">
-        <v>40.752554340000003</v>
+        <v>40.702708999999999</v>
       </c>
       <c r="J8">
-        <v>-73.972826249999997</v>
+        <v>-73.992530000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45443.526875000003</v>
+        <v>45413.629085648099</v>
       </c>
       <c r="B9" s="1">
-        <v>45443.529652777775</v>
+        <v>45413.635578703703</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>7265.1</v>
+        <v>6960.1</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>7121.02</v>
+        <v>7235.13</v>
       </c>
       <c r="G9">
-        <v>40.780670762</v>
+        <v>40.768736869999998</v>
       </c>
       <c r="H9">
-        <v>-73.952263474000006</v>
+        <v>-73.961199449999995</v>
       </c>
       <c r="I9">
-        <v>40.773913902381103</v>
+        <v>40.778300999999999</v>
       </c>
       <c r="J9">
-        <v>-73.954395353794098</v>
+        <v>-73.948813400000006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45438.651701388888</v>
+        <v>45413.6707523148</v>
       </c>
       <c r="B10" s="1">
-        <v>45438.654386574075</v>
+        <v>45413.677245370403</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>6621.06</v>
+        <v>6289.06</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>6536.02</v>
+        <v>5829.12</v>
       </c>
       <c r="G10">
-        <v>40.757356999999999</v>
+        <v>40.746485591000003</v>
       </c>
       <c r="H10">
-        <v>-73.904725999999997</v>
+        <v>-73.988592029000003</v>
       </c>
       <c r="I10">
-        <v>40.754176000000001</v>
+        <v>40.732617869999999</v>
       </c>
       <c r="J10">
-        <v>-73.900317999999999</v>
+        <v>-73.991580429999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45434.742071759261</v>
+        <v>45413.7124189815</v>
       </c>
       <c r="B11" s="1">
-        <v>45434.744571759256</v>
+        <v>45413.718912037002</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>5403.04</v>
+        <v>3376.02</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>5442.05</v>
+        <v>2984.04</v>
       </c>
       <c r="G11">
-        <v>40.716981099999998</v>
+        <v>40.651937484999998</v>
       </c>
       <c r="H11">
-        <v>-73.944859179999995</v>
+        <v>-73.965284347999997</v>
       </c>
       <c r="I11">
-        <v>40.719155716960401</v>
+        <v>40.640340000000002</v>
       </c>
       <c r="J11">
-        <v>-73.948853909969301</v>
+        <v>-73.966030000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45429.917037037034</v>
+        <v>45413.754085648099</v>
       </c>
       <c r="B12" s="1">
-        <v>45429.930706018517</v>
+        <v>45413.760578703703</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>5616.01</v>
+        <v>4051.01</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>5442.05</v>
+        <v>4895.03</v>
       </c>
       <c r="G12">
-        <v>40.725292205999999</v>
+        <v>40.675291180999999</v>
       </c>
       <c r="H12">
-        <v>-73.977672935000001</v>
+        <v>-73.975165844000003</v>
       </c>
       <c r="I12">
-        <v>40.719155716960401</v>
+        <v>40.702461</v>
       </c>
       <c r="J12">
-        <v>-73.948853909969301</v>
+        <v>-73.986841999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45416.544108796297</v>
+        <v>45413.7957523148</v>
       </c>
       <c r="B13" s="1">
-        <v>45416.546469907407</v>
+        <v>45413.802245370403</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>4927.04</v>
+        <v>5241.0200000000004</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>4903.09</v>
+        <v>3862.07</v>
       </c>
       <c r="G13">
-        <v>40.702242136000002</v>
+        <v>40.714303731999998</v>
       </c>
       <c r="H13">
-        <v>-73.982254267000002</v>
+        <v>-73.933010221000004</v>
       </c>
       <c r="I13">
-        <v>40.702708999999999</v>
+        <v>40.669289999999997</v>
       </c>
       <c r="J13">
-        <v>-73.992530000000002</v>
+        <v>-73.936790000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45433.39571759259</v>
+        <v>45413.8374189815</v>
       </c>
       <c r="B14" s="1">
-        <v>45433.402650462966</v>
+        <v>45413.843912037002</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>4927.04</v>
+        <v>5902.07</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>4903.09</v>
+        <v>5414.06</v>
       </c>
       <c r="G14">
-        <v>40.702240000000003</v>
+        <v>40.735294580000001</v>
       </c>
       <c r="H14">
-        <v>-73.982578000000004</v>
+        <v>-73.954744696999995</v>
       </c>
       <c r="I14">
-        <v>40.702708999999999</v>
+        <v>40.720195760000003</v>
       </c>
       <c r="J14">
-        <v>-73.992530000000002</v>
+        <v>-73.989978249999993</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45443.791747685187</v>
+        <v>45413.879085648099</v>
       </c>
       <c r="B15" s="1">
-        <v>45443.798483796294</v>
+        <v>45413.885578703703</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>6960.1</v>
+        <v>5270.05</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>7235.13</v>
+        <v>5137.1099999999997</v>
       </c>
       <c r="G15">
-        <v>40.768736869999998</v>
+        <v>40.714088678000003</v>
       </c>
       <c r="H15">
-        <v>-73.961199449999995</v>
+        <v>-73.992950797000006</v>
       </c>
       <c r="I15">
-        <v>40.778300999999999</v>
+        <v>40.709600893635297</v>
       </c>
       <c r="J15">
-        <v>-73.948813400000006</v>
+        <v>-74.006550908088599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45414.603703703702</v>
+        <v>45413.9207523148</v>
       </c>
       <c r="B16" s="1">
-        <v>45414.607627314814</v>
+        <v>45413.927245370403</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>6289.06</v>
+        <v>5676.04</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>5829.12</v>
+        <v>5944.01</v>
       </c>
       <c r="G16">
-        <v>40.746485591000003</v>
+        <v>40.726930000000003</v>
       </c>
       <c r="H16">
-        <v>-73.988592029000003</v>
+        <v>-73.958629999999999</v>
       </c>
       <c r="I16">
-        <v>40.732617869999999</v>
+        <v>40.735639999999997</v>
       </c>
       <c r="J16">
-        <v>-73.991580429999999</v>
+        <v>-73.958659999999995</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45429.749861111108</v>
+        <v>45413.9624189815</v>
       </c>
       <c r="B17" s="1">
-        <v>45429.756018518521</v>
+        <v>45413.968912037002</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>5195.0600000000004</v>
+        <v>4611.03</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F17">
-        <v>5442.05</v>
+        <v>4843.01</v>
       </c>
       <c r="G17">
-        <v>40.710709000000001</v>
+        <v>40.691960350000002</v>
       </c>
       <c r="H17">
-        <v>-73.959723999999994</v>
+        <v>-73.965368510000005</v>
       </c>
       <c r="I17">
-        <v>40.719155716960401</v>
+        <v>40.699997484388497</v>
       </c>
       <c r="J17">
-        <v>-73.948853909969301</v>
+        <v>-73.974401280283899</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45428.476979166669</v>
+        <v>45414.004085648099</v>
       </c>
       <c r="B18" s="1">
-        <v>45428.481886574074</v>
+        <v>45414.010578703703</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>6289.06</v>
+        <v>5288.09</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F18">
-        <v>6464.08</v>
+        <v>3919.12</v>
       </c>
       <c r="G18">
-        <v>40.746398806999998</v>
+        <v>40.71473993</v>
       </c>
       <c r="H18">
-        <v>-73.988641977</v>
+        <v>-74.009106270000004</v>
       </c>
       <c r="I18">
-        <v>40.752554340000003</v>
+        <v>40.670529000000002</v>
       </c>
       <c r="J18">
-        <v>-73.972826249999997</v>
+        <v>-73.958222000000006</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45423.773946759262</v>
+        <v>45414.0457523148</v>
       </c>
       <c r="B19" s="1">
-        <v>45423.778333333335</v>
+        <v>45414.052245370403</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>3376.02</v>
+        <v>6718.02</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>2984.04</v>
+        <v>6493.03</v>
       </c>
       <c r="G19">
-        <v>40.651937484999998</v>
+        <v>40.758859999999999</v>
       </c>
       <c r="H19">
-        <v>-73.965284347999997</v>
+        <v>-73.890810000000002</v>
       </c>
       <c r="I19">
-        <v>40.640340000000002</v>
+        <v>40.752569999999999</v>
       </c>
       <c r="J19">
-        <v>-73.966030000000003</v>
+        <v>-73.895380000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45423.753437500003</v>
+        <v>45414.0874189815</v>
       </c>
       <c r="B20" s="1">
-        <v>45423.771770833337</v>
+        <v>45414.093912037002</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>4428.0200000000004</v>
+        <v>4413.08</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>3084.05</v>
+        <v>4829.01</v>
       </c>
       <c r="G20">
-        <v>40.687698959999999</v>
+        <v>40.68645978</v>
       </c>
       <c r="H20">
-        <v>-73.972731948000003</v>
+        <v>-73.993849038999997</v>
       </c>
       <c r="I20">
-        <v>40.642702999999997</v>
+        <v>40.700378669999999</v>
       </c>
       <c r="J20">
-        <v>-74.009440999999995</v>
+        <v>-73.99548059</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45423.788506944446</v>
+        <v>45414.129085648099</v>
       </c>
       <c r="B21" s="1">
-        <v>45423.798773148148</v>
+        <v>45414.135578703703</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>7265.1</v>
+        <v>7450.05</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F21">
-        <v>7670.09</v>
+        <v>7655.22</v>
       </c>
       <c r="G21">
-        <v>40.780629396000002</v>
+        <v>40.794950128000004</v>
       </c>
       <c r="H21">
-        <v>-73.952126503000002</v>
+        <v>-73.933392405999996</v>
       </c>
       <c r="I21">
-        <v>40.804372000000001</v>
+        <v>40.802556600000003</v>
       </c>
       <c r="J21">
-        <v>-73.951475000000002</v>
+        <v>-73.949078200000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45442.789409722223</v>
+        <v>45414.1707523148</v>
       </c>
       <c r="B22" s="1">
-        <v>45442.801145833335</v>
+        <v>45414.177245370403</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>7623.13</v>
+        <v>5422.09</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F22">
-        <v>7235.13</v>
+        <v>5422.09</v>
       </c>
       <c r="G22">
-        <v>40.801297187999999</v>
+        <v>40.720280000000002</v>
       </c>
       <c r="H22">
-        <v>-73.971174598000005</v>
+        <v>-73.99879</v>
       </c>
       <c r="I22">
-        <v>40.778300999999999</v>
+        <v>40.720280000000002</v>
       </c>
       <c r="J22">
-        <v>-73.948813400000006</v>
+        <v>-73.99879</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45440.455752314818</v>
+        <v>45414.2124189815</v>
       </c>
       <c r="B23" s="1">
-        <v>45440.516539351855</v>
+        <v>45414.218912037002</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>6289.06</v>
+        <v>4010.15</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F23">
-        <v>3925.03</v>
+        <v>4010.15</v>
       </c>
       <c r="G23">
-        <v>40.746293545</v>
+        <v>40.672967900000003</v>
       </c>
       <c r="H23">
-        <v>-73.988530992999998</v>
+        <v>-73.970879839999995</v>
       </c>
       <c r="I23">
-        <v>40.671280000000003</v>
+        <v>40.672967900000003</v>
       </c>
       <c r="J23">
-        <v>-73.928250000000006</v>
+        <v>-73.970879839999995</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45431.300254629627</v>
+        <v>45414.254085648099</v>
       </c>
       <c r="B24" s="1">
-        <v>45431.309247685182</v>
+        <v>45414.260578703703</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>4051.01</v>
+        <v>6920.03</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>4895.03</v>
+        <v>6920.03</v>
       </c>
       <c r="G24">
-        <v>40.675291180999999</v>
+        <v>40.765849410000001</v>
       </c>
       <c r="H24">
-        <v>-73.975165844000003</v>
+        <v>-73.986905059999998</v>
       </c>
       <c r="I24">
-        <v>40.702461</v>
+        <v>40.765849410000001</v>
       </c>
       <c r="J24">
-        <v>-73.986841999999996</v>
+        <v>-73.986905059999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45431.226527777777</v>
+        <v>45414.2957523148</v>
       </c>
       <c r="B25" s="1">
-        <v>45431.241562499999</v>
+        <v>45414.302245370403</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>5241.0200000000004</v>
+        <v>3905.15</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F25">
-        <v>3862.07</v>
+        <v>3905.15</v>
       </c>
       <c r="G25">
-        <v>40.714303731999998</v>
+        <v>40.670422076999998</v>
       </c>
       <c r="H25">
-        <v>-73.933010221000004</v>
+        <v>-73.978388906000006</v>
       </c>
       <c r="I25">
-        <v>40.669289999999997</v>
+        <v>40.670383700000002</v>
       </c>
       <c r="J25">
-        <v>-73.936790000000002</v>
+        <v>-73.978396759999995</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45423.626273148147</v>
+        <v>45414.3374189815</v>
       </c>
       <c r="B26" s="1">
-        <v>45423.631111111114</v>
+        <v>45414.343912037002</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>6960.1</v>
+        <v>5359.13</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>7121.02</v>
+        <v>5359.13</v>
       </c>
       <c r="G26">
-        <v>40.768736869999998</v>
+        <v>40.716884374999999</v>
       </c>
       <c r="H26">
-        <v>-73.961199449999995</v>
+        <v>-74.006823659000005</v>
       </c>
       <c r="I26">
-        <v>40.773913902381103</v>
+        <v>40.716885384953599</v>
       </c>
       <c r="J26">
-        <v>-73.954395353794098</v>
+        <v>-74.006501287221894</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45418.701342592591</v>
+        <v>45414.379085648099</v>
       </c>
       <c r="B27" s="1">
-        <v>45418.709733796299</v>
+        <v>45414.385578703703</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>6079.03</v>
+        <v>6306.01</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>7121.02</v>
+        <v>6306.01</v>
       </c>
       <c r="G27">
-        <v>40.741444825999999</v>
+        <v>40.745685999999999</v>
       </c>
       <c r="H27">
-        <v>-73.975330830000004</v>
+        <v>-74.005140999999995</v>
       </c>
       <c r="I27">
-        <v>40.773913902381103</v>
+        <v>40.745685999999999</v>
       </c>
       <c r="J27">
-        <v>-73.954395353794098</v>
+        <v>-74.005140999999995</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45435.702881944446</v>
+        <v>45414.4207523148</v>
       </c>
       <c r="B28" s="1">
-        <v>45435.720173611109</v>
+        <v>45414.427245370403</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D28">
-        <v>3376.02</v>
+        <v>6904.06</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F28">
-        <v>4903.09</v>
+        <v>6904.06</v>
       </c>
       <c r="G28">
-        <v>40.652104973999997</v>
+        <v>40.766412973000001</v>
       </c>
       <c r="H28">
-        <v>-73.965273022999995</v>
+        <v>-73.971555948000002</v>
       </c>
       <c r="I28">
-        <v>40.702708999999999</v>
+        <v>40.766368</v>
       </c>
       <c r="J28">
-        <v>-73.992530000000002</v>
+        <v>-73.971518000000003</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45442.687175925923</v>
+        <v>45414.4624189815</v>
       </c>
       <c r="B29" s="1">
-        <v>45442.702893518515</v>
+        <v>45414.468912037002</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>5902.07</v>
+        <v>8061.01</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F29">
-        <v>5414.06</v>
+        <v>8061.01</v>
       </c>
       <c r="G29">
-        <v>40.735294580000001</v>
+        <v>40.830187320999997</v>
       </c>
       <c r="H29">
-        <v>-73.954744696999995</v>
+        <v>-73.928867936000003</v>
       </c>
       <c r="I29">
-        <v>40.720195760000003</v>
+        <v>40.830179000000001</v>
       </c>
       <c r="J29">
-        <v>-73.989978249999993</v>
+        <v>-73.928747000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45420.358993055554</v>
+        <v>45414.504085648099</v>
       </c>
       <c r="B30" s="1">
-        <v>45420.361921296295</v>
+        <v>45414.510578703703</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>5270.05</v>
+        <v>7738.04</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F30">
-        <v>5137.1099999999997</v>
+        <v>7738.04</v>
       </c>
       <c r="G30">
-        <v>40.714088678000003</v>
+        <v>40.809345245000003</v>
       </c>
       <c r="H30">
-        <v>-73.992950797000006</v>
+        <v>-73.947819828999997</v>
       </c>
       <c r="I30">
-        <v>40.709600893635297</v>
+        <v>40.809495347779396</v>
       </c>
       <c r="J30">
-        <v>-74.006550908088599</v>
+        <v>-73.947764933109198</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45429.811886574076</v>
+        <v>45414.5457523148</v>
       </c>
       <c r="B31" s="1">
-        <v>45429.816979166666</v>
+        <v>45414.552245370403</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>6098.12</v>
+        <v>6569.07</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F31">
-        <v>5414.06</v>
+        <v>5114.08</v>
       </c>
       <c r="G31">
-        <v>40.738900661000002</v>
+        <v>40.754623240290996</v>
       </c>
       <c r="H31">
-        <v>-73.989583253999996</v>
+        <v>-73.995167613029395</v>
       </c>
       <c r="I31">
-        <v>40.720195760000003</v>
+        <v>40.709957000000003</v>
       </c>
       <c r="J31">
-        <v>-73.989978249999993</v>
+        <v>-74.016537999999997</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45442.372696759259</v>
+        <v>45414.5874189815</v>
       </c>
       <c r="B32" s="1">
-        <v>45442.376689814817</v>
+        <v>45414.593912037002</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D32">
-        <v>5270.05</v>
+        <v>5043.0600000000004</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F32">
-        <v>5137.1099999999997</v>
+        <v>4994.1000000000004</v>
       </c>
       <c r="G32">
-        <v>40.714066670000001</v>
+        <v>40.706359999999997</v>
       </c>
       <c r="H32">
-        <v>-73.992939109999995</v>
+        <v>-73.919449999999998</v>
       </c>
       <c r="I32">
-        <v>40.709600893635297</v>
+        <v>40.704129999999999</v>
       </c>
       <c r="J32">
-        <v>-74.006550908088599</v>
+        <v>-73.90737</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>45437.363217592596</v>
+        <v>45414.629085648099</v>
       </c>
       <c r="B33" s="1">
-        <v>45437.366979166669</v>
+        <v>45414.635578703703</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>5676.04</v>
+        <v>8335.02</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F33">
-        <v>5944.01</v>
+        <v>8272.08</v>
       </c>
       <c r="G33">
-        <v>40.726930000000003</v>
+        <v>40.847311378000001</v>
       </c>
       <c r="H33">
-        <v>-73.958629999999999</v>
+        <v>-73.899782062</v>
       </c>
       <c r="I33">
-        <v>40.735639999999997</v>
+        <v>40.843110000000003</v>
       </c>
       <c r="J33">
-        <v>-73.958659999999995</v>
+        <v>-73.891490000000005</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>45423.739895833336</v>
+        <v>45414.6707523148</v>
       </c>
       <c r="B34" s="1">
-        <v>45423.743020833332</v>
+        <v>45414.677245370403</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>6170.09</v>
+        <v>7636.05</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>5944.01</v>
+        <v>7716.19</v>
       </c>
       <c r="G34">
-        <v>40.742679357999997</v>
+        <v>40.802851081</v>
       </c>
       <c r="H34">
-        <v>-73.952358841999995</v>
+        <v>-73.937662958999994</v>
       </c>
       <c r="I34">
-        <v>40.735639999999997</v>
+        <v>40.806413999999997</v>
       </c>
       <c r="J34">
-        <v>-73.958659999999995</v>
+        <v>-73.936085000000006</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>45415.376354166663</v>
+        <v>45414.7124189815</v>
       </c>
       <c r="B35" s="1">
-        <v>45415.382557870369</v>
+        <v>45414.718912037002</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D35">
-        <v>4611.03</v>
+        <v>8315.0300000000007</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F35">
-        <v>4843.01</v>
+        <v>6551.11</v>
       </c>
       <c r="G35">
-        <v>40.691960350000002</v>
+        <v>40.846259355999997</v>
       </c>
       <c r="H35">
-        <v>-73.965368510000005</v>
+        <v>-73.896350502999994</v>
       </c>
       <c r="I35">
-        <v>40.699997484388497</v>
+        <v>40.753546818670699</v>
       </c>
       <c r="J35">
-        <v>-73.974401280283899</v>
+        <v>-73.978965729474993</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>45426.59070601852</v>
+        <v>45414.754085648099</v>
       </c>
       <c r="B36" s="1">
-        <v>45426.602129629631</v>
+        <v>45414.760578703703</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>5270.05</v>
+        <v>6551.02</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F36">
-        <v>4829.01</v>
+        <v>5532.01</v>
       </c>
       <c r="G36">
-        <v>40.713932276000001</v>
+        <v>40.755252718999998</v>
       </c>
       <c r="H36">
-        <v>-73.992905735999997</v>
+        <v>-73.980161785999996</v>
       </c>
       <c r="I36">
-        <v>40.700378669999999</v>
+        <v>40.723627380000003</v>
       </c>
       <c r="J36">
-        <v>-73.99548059</v>
+        <v>-73.999496010000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>45433.512743055559</v>
+        <v>45414.7957523148</v>
       </c>
       <c r="B37" s="1">
-        <v>45433.516793981478</v>
+        <v>45414.802245370403</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D37">
-        <v>5270.05</v>
+        <v>4637.0600000000004</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F37">
-        <v>5414.06</v>
+        <v>4413.08</v>
       </c>
       <c r="G37">
-        <v>40.714066670000001</v>
+        <v>40.692418292578402</v>
       </c>
       <c r="H37">
-        <v>-73.992939109999995</v>
+        <v>-73.989494740962897</v>
       </c>
       <c r="I37">
-        <v>40.720195760000003</v>
+        <v>40.686371000000001</v>
       </c>
       <c r="J37">
-        <v>-73.989978249999993</v>
+        <v>-73.993833240000001</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>45438.624062499999</v>
+        <v>45414.8374189815</v>
       </c>
       <c r="B38" s="1">
-        <v>45438.647893518515</v>
+        <v>45414.843912037002</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>5288.09</v>
+        <v>8209.01</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F38">
-        <v>3919.12</v>
+        <v>8111.07</v>
       </c>
       <c r="G38">
-        <v>40.71473993</v>
+        <v>40.838990000000003</v>
       </c>
       <c r="H38">
-        <v>-74.009106270000004</v>
+        <v>-73.910899999999998</v>
       </c>
       <c r="I38">
-        <v>40.670529000000002</v>
+        <v>40.834060000000001</v>
       </c>
       <c r="J38">
-        <v>-73.958222000000006</v>
+        <v>-73.922430000000006</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>45434.814768518518</v>
+        <v>45414.879085648099</v>
       </c>
       <c r="B39" s="1">
-        <v>45434.819548611114</v>
+        <v>45414.885578703703</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D39">
-        <v>6718.02</v>
+        <v>5442.09</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>6493.03</v>
+        <v>5752.09</v>
       </c>
       <c r="G39">
-        <v>40.758859999999999</v>
+        <v>40.720840000000003</v>
       </c>
       <c r="H39">
-        <v>-73.890810000000002</v>
+        <v>-73.948440000000005</v>
       </c>
       <c r="I39">
-        <v>40.752569999999999</v>
+        <v>40.729802999999997</v>
       </c>
       <c r="J39">
-        <v>-73.895380000000003</v>
+        <v>-73.959098999999995</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>45442.540833333333</v>
+        <v>45414.9207523148</v>
       </c>
       <c r="B40" s="1">
-        <v>45442.544861111113</v>
+        <v>45414.927245370403</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D40">
-        <v>5270.05</v>
+        <v>4161.01</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F40">
-        <v>5137.1099999999997</v>
+        <v>4824.03</v>
       </c>
       <c r="G40">
-        <v>40.713966608</v>
+        <v>40.678600000000003</v>
       </c>
       <c r="H40">
-        <v>-73.992838501999998</v>
+        <v>-73.903689999999997</v>
       </c>
       <c r="I40">
-        <v>40.709600893635297</v>
+        <v>40.699303999999998</v>
       </c>
       <c r="J40">
-        <v>-74.006550908088599</v>
+        <v>-73.923044000000004</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>45438.852268518516</v>
+        <v>45414.9624189815</v>
       </c>
       <c r="B41" s="1">
-        <v>45438.857314814813</v>
+        <v>45414.968912037002</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D41">
-        <v>4413.08</v>
+        <v>7286.05</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F41">
-        <v>4829.01</v>
+        <v>7286.05</v>
       </c>
       <c r="G41">
-        <v>40.68645978</v>
+        <v>40.7817212</v>
       </c>
       <c r="H41">
-        <v>-73.993849038999997</v>
+        <v>-73.945939999999993</v>
       </c>
       <c r="I41">
-        <v>40.700378669999999</v>
+        <v>40.7817212</v>
       </c>
       <c r="J41">
-        <v>-73.99548059</v>
+        <v>-73.945939999999993</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>45418.5862037037</v>
+        <v>45415.004085648099</v>
       </c>
       <c r="B42" s="1">
-        <v>45418.59165509259</v>
+        <v>45415.010578703703</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>4531.05</v>
+        <v>3882.05</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F42">
-        <v>4829.01</v>
+        <v>6839.04</v>
       </c>
       <c r="G42">
-        <v>40.690892720000001</v>
+        <v>40.669635534000001</v>
       </c>
       <c r="H42">
-        <v>-73.996123490000002</v>
+        <v>-73.988973141000002</v>
       </c>
       <c r="I42">
-        <v>40.700378669999999</v>
+        <v>40.7630259428051</v>
       </c>
       <c r="J42">
-        <v>-73.99548059</v>
+        <v>-73.972095251083303</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>45425.833587962959</v>
+        <v>45415.0457523148</v>
       </c>
       <c r="B43" s="1">
-        <v>45425.835844907408</v>
+        <v>45415.052245370403</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D43">
-        <v>5288.09</v>
+        <v>4374.01</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F43">
-        <v>5137.1099999999997</v>
+        <v>4374.01</v>
       </c>
       <c r="G43">
-        <v>40.71473993</v>
+        <v>40.685125595154098</v>
       </c>
       <c r="H43">
-        <v>-74.009106270000004</v>
+        <v>-74.025353193282996</v>
       </c>
       <c r="I43">
-        <v>40.709600893635297</v>
+        <v>40.685125595154098</v>
       </c>
       <c r="J43">
-        <v>-74.006550908088599</v>
+        <v>-74.025353193282996</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>45430.916180555556</v>
+        <v>45415.0874189815</v>
       </c>
       <c r="B44" s="1">
-        <v>45430.923831018517</v>
+        <v>45415.093912037002</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>5288.09</v>
+        <v>6332.09</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F44">
-        <v>5414.06</v>
+        <v>5291.05</v>
       </c>
       <c r="G44">
-        <v>40.714321374999997</v>
+        <v>40.746811747999999</v>
       </c>
       <c r="H44">
-        <v>-74.008975863000003</v>
+        <v>-73.890458344999999</v>
       </c>
       <c r="I44">
-        <v>40.720195760000003</v>
+        <v>40.715142999999998</v>
       </c>
       <c r="J44">
-        <v>-73.989978249999993</v>
+        <v>-73.944507000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>45432.527349537035</v>
+        <v>45415.129085648099</v>
       </c>
       <c r="B45" s="1">
-        <v>45432.530856481484</v>
+        <v>45415.135578703703</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>7450.05</v>
+        <v>4060.09</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F45">
-        <v>7655.22</v>
+        <v>4060.09</v>
       </c>
       <c r="G45">
-        <v>40.794950128000004</v>
+        <v>40.675162200000003</v>
       </c>
       <c r="H45">
-        <v>-73.933392405999996</v>
+        <v>-73.9814832</v>
       </c>
       <c r="I45">
-        <v>40.802556600000003</v>
+        <v>40.675162200000003</v>
       </c>
       <c r="J45">
-        <v>-73.949078200000002</v>
+        <v>-73.9814832</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45432.829259259262</v>
+        <v>45415.1707523148</v>
       </c>
       <c r="B46" s="1">
-        <v>45432.829375000001</v>
+        <v>45415.177245370403</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>5422.09</v>
+        <v>6339.06</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F46">
-        <v>5422.09</v>
+        <v>6339.06</v>
       </c>
       <c r="G46">
-        <v>40.720280000000002</v>
+        <v>40.747969746999999</v>
       </c>
       <c r="H46">
-        <v>-73.99879</v>
+        <v>-74.001265525999997</v>
       </c>
       <c r="I46">
-        <v>40.720280000000002</v>
+        <v>40.747832605837701</v>
       </c>
       <c r="J46">
-        <v>-73.99879</v>
+        <v>-74.000572264358198</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45420.843668981484</v>
+        <v>45415.2124189815</v>
       </c>
       <c r="B47" s="1">
-        <v>45420.864976851852</v>
+        <v>45415.218912037002</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>4010.15</v>
+        <v>5140.0600000000004</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F47">
-        <v>4010.15</v>
+        <v>5140.0600000000004</v>
       </c>
       <c r="G47">
-        <v>40.672967900000003</v>
+        <v>40.710022211000002</v>
       </c>
       <c r="H47">
-        <v>-73.970879839999995</v>
+        <v>-73.940120458999999</v>
       </c>
       <c r="I47">
-        <v>40.672967900000003</v>
+        <v>40.709896999999998</v>
       </c>
       <c r="J47">
-        <v>-73.970879839999995</v>
+        <v>-73.940079999999995</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>45433.742939814816</v>
+        <v>45415.254085648099</v>
       </c>
       <c r="B48" s="1">
-        <v>45433.743252314816</v>
+        <v>45415.260578703703</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>6920.03</v>
+        <v>8510.02</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F48">
-        <v>6920.03</v>
+        <v>8510.02</v>
       </c>
       <c r="G48">
-        <v>40.765849410000001</v>
+        <v>40.858426094000002</v>
       </c>
       <c r="H48">
-        <v>-73.986905059999998</v>
+        <v>-73.896328925999995</v>
       </c>
       <c r="I48">
-        <v>40.765849410000001</v>
+        <v>40.858497999999997</v>
       </c>
       <c r="J48">
-        <v>-73.986905059999998</v>
+        <v>-73.896370000000005</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>45442.004710648151</v>
+        <v>45415.2957523148</v>
       </c>
       <c r="B49" s="1">
-        <v>45442.009120370371</v>
+        <v>45415.302245370403</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D49">
-        <v>3905.15</v>
+        <v>3504.02</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F49">
-        <v>3905.15</v>
+        <v>3504.02</v>
       </c>
       <c r="G49">
-        <v>40.670422076999998</v>
+        <v>40.657817602000002</v>
       </c>
       <c r="H49">
-        <v>-73.978388906000006</v>
+        <v>-73.947313070000007</v>
       </c>
       <c r="I49">
-        <v>40.670383700000002</v>
+        <v>40.657940000000004</v>
       </c>
       <c r="J49">
-        <v>-73.978396759999995</v>
+        <v>-73.94735</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>45433.769016203703</v>
+        <v>45415.3374189815</v>
       </c>
       <c r="B50" s="1">
-        <v>45433.777627314812</v>
+        <v>45415.343912037002</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D50">
-        <v>7450.05</v>
+        <v>6750.16</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F50">
-        <v>7738.04</v>
+        <v>6711.13</v>
       </c>
       <c r="G50">
-        <v>40.794788240999999</v>
+        <v>40.760216831999998</v>
       </c>
       <c r="H50">
-        <v>-73.933310746999993</v>
+        <v>-73.922430754000004</v>
       </c>
       <c r="I50">
-        <v>40.809495347779396</v>
+        <v>40.759057954185799</v>
       </c>
       <c r="J50">
-        <v>-73.947764933109198</v>
+        <v>-73.918975442647906</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>45432.960185185184</v>
+        <v>45415.379085648099</v>
       </c>
       <c r="B51" s="1">
-        <v>45432.977685185186</v>
+        <v>45415.385578703703</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D51">
-        <v>7655.22</v>
+        <v>6711.13</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F51">
-        <v>7655.22</v>
+        <v>6563.12</v>
       </c>
       <c r="G51">
-        <v>40.802556600000003</v>
+        <v>40.759127616999997</v>
       </c>
       <c r="H51">
-        <v>-73.949078200000002</v>
+        <v>-73.918890118999997</v>
       </c>
       <c r="I51">
-        <v>40.802556600000003</v>
+        <v>40.755732700000003</v>
       </c>
       <c r="J51">
-        <v>-73.949078200000002</v>
+        <v>-73.923661100000004</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>45433.730046296296</v>
+        <v>45415.4207523148</v>
       </c>
       <c r="B52" s="1">
-        <v>45433.730127314811</v>
+        <v>45415.427245370403</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D52">
-        <v>5359.13</v>
+        <v>3811.05</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F52">
-        <v>5359.13</v>
+        <v>3811.05</v>
       </c>
       <c r="G52">
-        <v>40.716884374999999</v>
+        <v>40.666196999999997</v>
       </c>
       <c r="H52">
-        <v>-74.006823659000005</v>
+        <v>-73.992465999999993</v>
       </c>
       <c r="I52">
-        <v>40.716885384953599</v>
+        <v>40.666196999999997</v>
       </c>
       <c r="J52">
-        <v>-74.006501287221894</v>
+        <v>-73.992465999999993</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>45413.614976851852</v>
+        <v>45415.4624189815</v>
       </c>
       <c r="B53" s="1">
-        <v>45413.643854166665</v>
+        <v>45415.468912037002</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D53">
-        <v>6306.01</v>
+        <v>4832.07</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F53">
-        <v>6306.01</v>
+        <v>4832.07</v>
       </c>
       <c r="G53">
-        <v>40.745685999999999</v>
+        <v>40.701048016999998</v>
       </c>
       <c r="H53">
-        <v>-74.005140999999995</v>
+        <v>-73.930363893999996</v>
       </c>
       <c r="I53">
-        <v>40.745685999999999</v>
+        <v>40.701120000000003</v>
       </c>
       <c r="J53">
-        <v>-74.005140999999995</v>
+        <v>-73.930390000000003</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>45434.366099537037</v>
+        <v>45415.504085648099</v>
       </c>
       <c r="B54" s="1">
-        <v>45434.367048611108</v>
+        <v>45415.510578703703</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D54">
-        <v>7655.22</v>
+        <v>5115.05</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F54">
-        <v>7655.22</v>
+        <v>4500.07</v>
       </c>
       <c r="G54">
-        <v>40.802575945999997</v>
+        <v>40.709821701000003</v>
       </c>
       <c r="H54">
-        <v>-73.949092864999997</v>
+        <v>-73.917315482999996</v>
       </c>
       <c r="I54">
-        <v>40.802556600000003</v>
+        <v>40.689729999999997</v>
       </c>
       <c r="J54">
-        <v>-73.949078200000002</v>
+        <v>-73.933530000000005</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>45420.743726851855</v>
+        <v>45415.5457523148</v>
       </c>
       <c r="B55" s="1">
-        <v>45420.744108796294</v>
+        <v>45415.552245370403</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D55">
-        <v>6904.06</v>
+        <v>6134.13</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F55">
-        <v>6904.06</v>
+        <v>5002.09</v>
       </c>
       <c r="G55">
-        <v>40.766412973000001</v>
+        <v>40.741132258999997</v>
       </c>
       <c r="H55">
-        <v>-73.971555948000002</v>
+        <v>-73.921056270999998</v>
       </c>
       <c r="I55">
-        <v>40.766368</v>
+        <v>40.705770000000001</v>
       </c>
       <c r="J55">
-        <v>-73.971518000000003</v>
+        <v>-73.91292</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>45437.998333333337</v>
+        <v>45415.5874189815</v>
       </c>
       <c r="B56" s="1">
-        <v>45437.99863425926</v>
+        <v>45415.593912037002</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D56">
-        <v>8061.01</v>
+        <v>8344.09</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F56">
-        <v>8061.01</v>
+        <v>8344.09</v>
       </c>
       <c r="G56">
-        <v>40.830187320999997</v>
+        <v>40.849659443</v>
       </c>
       <c r="H56">
-        <v>-73.928867936000003</v>
+        <v>-73.916154860999995</v>
       </c>
       <c r="I56">
-        <v>40.830179000000001</v>
+        <v>40.849640100000002</v>
       </c>
       <c r="J56">
-        <v>-73.928747000000001</v>
+        <v>-73.916120599999999</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>45443.667395833334</v>
+        <v>45415.629085648099</v>
       </c>
       <c r="B57" s="1">
-        <v>45443.667407407411</v>
+        <v>45415.635578703703</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>7738.04</v>
+        <v>6659.09</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F57">
-        <v>7738.04</v>
+        <v>6659.09</v>
       </c>
       <c r="G57">
-        <v>40.809345245000003</v>
+        <v>40.758511781999999</v>
       </c>
       <c r="H57">
-        <v>-73.947819828999997</v>
+        <v>-73.974454640999994</v>
       </c>
       <c r="I57">
-        <v>40.809495347779396</v>
+        <v>40.758629999999997</v>
       </c>
       <c r="J57">
-        <v>-73.947764933109198</v>
+        <v>-73.975129999999993</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>45442.845555555556</v>
+        <v>45415.6707523148</v>
       </c>
       <c r="B58" s="1">
-        <v>45442.849803240744</v>
+        <v>45415.677245370403</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D58">
-        <v>4010.15</v>
+        <v>4196.01</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F58">
-        <v>3905.15</v>
+        <v>4196.01</v>
       </c>
       <c r="G58">
-        <v>40.672959446999997</v>
+        <v>40.679720000000003</v>
       </c>
       <c r="H58">
-        <v>-73.970760225999996</v>
+        <v>-73.934669999999997</v>
       </c>
       <c r="I58">
-        <v>40.670383700000002</v>
+        <v>40.679720000000003</v>
       </c>
       <c r="J58">
-        <v>-73.978396759999995</v>
+        <v>-73.934669999999997</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>45432.311979166669</v>
+        <v>45415.7124189815</v>
       </c>
       <c r="B59" s="1">
-        <v>45432.331944444442</v>
+        <v>45415.718912037002</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D59">
-        <v>6569.07</v>
+        <v>5500.07</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F59">
-        <v>5114.08</v>
+        <v>5359.1</v>
       </c>
       <c r="G59">
-        <v>40.754623240290996</v>
+        <v>40.722437970000001</v>
       </c>
       <c r="H59">
-        <v>-73.995167613029395</v>
+        <v>-74.005664429999996</v>
       </c>
       <c r="I59">
-        <v>40.709957000000003</v>
+        <v>40.716250080000002</v>
       </c>
       <c r="J59">
-        <v>-74.016537999999997</v>
+        <v>-74.009105899999994</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>45432.759513888886</v>
+        <v>45415.754085648099</v>
       </c>
       <c r="B60" s="1">
-        <v>45432.768912037034</v>
+        <v>45415.760578703703</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="D60">
-        <v>6498.09</v>
+        <v>5436.11</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>6551.11</v>
+        <v>5445.07</v>
       </c>
       <c r="G60">
-        <v>40.752162099000003</v>
+        <v>40.719786354528203</v>
       </c>
       <c r="H60">
-        <v>-73.967904924999999</v>
+        <v>-73.978716284036594</v>
       </c>
       <c r="I60">
-        <v>40.753546818670699</v>
+        <v>40.720747000000003</v>
       </c>
       <c r="J60">
-        <v>-73.978965729474993</v>
+        <v>-73.986273999999995</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>45433.506041666667</v>
+        <v>45415.7957523148</v>
       </c>
       <c r="B61" s="1">
-        <v>45433.512349537035</v>
+        <v>45415.802245370403</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D61">
-        <v>6289.06</v>
+        <v>6907.03</v>
       </c>
       <c r="E61" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F61">
-        <v>6432.11</v>
+        <v>6812.06</v>
       </c>
       <c r="G61">
-        <v>40.746111751000001</v>
+        <v>40.765752999999997</v>
       </c>
       <c r="H61">
-        <v>-73.988434076000004</v>
+        <v>-73.906760000000006</v>
       </c>
       <c r="I61">
-        <v>40.750756000000003</v>
+        <v>40.763421999999998</v>
       </c>
       <c r="J61">
-        <v>-73.978325999999996</v>
+        <v>-73.914141999999998</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>45433.359710648147</v>
+        <v>45415.8374189815</v>
       </c>
       <c r="B62" s="1">
-        <v>45433.364328703705</v>
+        <v>45415.843912037002</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="D62">
-        <v>5696.03</v>
+        <v>4568.01</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F62">
-        <v>5114.08</v>
+        <v>5374.01</v>
       </c>
       <c r="G62">
-        <v>40.728014946000002</v>
+        <v>40.754467949999999</v>
       </c>
       <c r="H62">
-        <v>-74.011158347000006</v>
+        <v>-73.985674500000002</v>
       </c>
       <c r="I62">
-        <v>40.709957000000003</v>
+        <v>40.717227399999999</v>
       </c>
       <c r="J62">
-        <v>-74.016537999999997</v>
+        <v>-73.988020840000004</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>45418.471550925926</v>
+        <v>45415.879085648099</v>
       </c>
       <c r="B63" s="1">
-        <v>45418.477696759262</v>
+        <v>45415.885578703703</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="D63">
-        <v>5696.03</v>
+        <v>4285.09</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F63">
-        <v>5114.08</v>
+        <v>5235.05</v>
       </c>
       <c r="G63">
-        <v>40.728048205</v>
+        <v>40.683317303999999</v>
       </c>
       <c r="H63">
-        <v>-74.011108398000005</v>
+        <v>-73.911808371999996</v>
       </c>
       <c r="I63">
-        <v>40.709957000000003</v>
+        <v>40.712604859999999</v>
       </c>
       <c r="J63">
-        <v>-74.016537999999997</v>
+        <v>-73.962644030000007</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>45443.795694444445</v>
+        <v>45415.9207523148</v>
       </c>
       <c r="B64" s="1">
-        <v>45443.79996527778</v>
+        <v>45415.927245370403</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="D64">
-        <v>6289.06</v>
+        <v>5593.02</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F64">
-        <v>6551.11</v>
+        <v>5779.1</v>
       </c>
       <c r="G64">
-        <v>40.746200899999998</v>
+        <v>40.725190638999997</v>
       </c>
       <c r="H64">
-        <v>-73.988557229999998</v>
+        <v>-73.990872382999996</v>
       </c>
       <c r="I64">
-        <v>40.753546818670699</v>
+        <v>40.731393033641503</v>
       </c>
       <c r="J64">
-        <v>-73.978965729474993</v>
+        <v>-73.982867002487097</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>45425.729039351849</v>
+        <v>45415.9624189815</v>
       </c>
       <c r="B65" s="1">
-        <v>45425.73269675926</v>
+        <v>45415.968912037002</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D65">
-        <v>6289.06</v>
+        <v>6313.1</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F65">
-        <v>6432.11</v>
+        <v>5769.06</v>
       </c>
       <c r="G65">
-        <v>40.746212243999999</v>
+        <v>40.747527361000003</v>
       </c>
       <c r="H65">
-        <v>-73.988625884000001</v>
+        <v>-73.979237675999997</v>
       </c>
       <c r="I65">
-        <v>40.750756000000003</v>
+        <v>40.729848303465197</v>
       </c>
       <c r="J65">
-        <v>-73.978325999999996</v>
+        <v>-73.974552154541001</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>45429.492037037038</v>
+        <v>45416.004085648099</v>
       </c>
       <c r="B66" s="1">
-        <v>45429.499988425923</v>
+        <v>45416.010578703703</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D66">
-        <v>7265.1</v>
+        <v>8111.07</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F66">
-        <v>7688.12</v>
+        <v>8233.01</v>
       </c>
       <c r="G66">
-        <v>40.780577659999999</v>
+        <v>40.834060000000001</v>
       </c>
       <c r="H66">
-        <v>-73.952459215999994</v>
+        <v>-73.922430000000006</v>
       </c>
       <c r="I66">
-        <v>40.805159000000003</v>
+        <v>40.840536</v>
       </c>
       <c r="J66">
-        <v>-73.954691999999994</v>
+        <v>-73.919228000000004</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>45443.768414351849</v>
+        <v>45416.0457523148</v>
       </c>
       <c r="B67" s="1">
-        <v>45443.773472222223</v>
+        <v>45416.052245370403</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>7623.13</v>
+        <v>7617.07</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F67">
-        <v>7288.04</v>
+        <v>7286.01</v>
       </c>
       <c r="G67">
-        <v>40.801124215000002</v>
+        <v>40.799484</v>
       </c>
       <c r="H67">
-        <v>-73.971119881000007</v>
+        <v>-73.955613</v>
       </c>
       <c r="I67">
-        <v>40.780577990103303</v>
+        <v>40.781152764279099</v>
       </c>
       <c r="J67">
-        <v>-73.985624313354407</v>
+        <v>-73.949630409479099</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>45435.544930555552</v>
+        <v>45416.0874189815</v>
       </c>
       <c r="B68" s="1">
-        <v>45435.550763888888</v>
+        <v>45416.093912037002</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>6498.09</v>
+        <v>5947.04</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F68">
-        <v>6432.11</v>
+        <v>5669.1</v>
       </c>
       <c r="G68">
-        <v>40.752143383000003</v>
+        <v>40.735444999999999</v>
       </c>
       <c r="H68">
-        <v>-73.967917561999997</v>
+        <v>-73.994309999999999</v>
       </c>
       <c r="I68">
-        <v>40.750756000000003</v>
+        <v>40.728418599999998</v>
       </c>
       <c r="J68">
-        <v>-73.978325999999996</v>
+        <v>-73.987139560000003</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>45419.693009259259</v>
+        <v>45416.129085648099</v>
       </c>
       <c r="B69" s="1">
-        <v>45419.69908564815</v>
+        <v>45416.135578703703</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D69">
-        <v>6289.06</v>
+        <v>8351.06</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F69">
-        <v>6551.11</v>
+        <v>7781.1</v>
       </c>
       <c r="G69">
-        <v>40.746326447000001</v>
+        <v>40.847480773999997</v>
       </c>
       <c r="H69">
-        <v>-73.988677502000002</v>
+        <v>-73.894660830000007</v>
       </c>
       <c r="I69">
-        <v>40.753546818670699</v>
+        <v>40.812735000000004</v>
       </c>
       <c r="J69">
-        <v>-73.978965729474993</v>
+        <v>-73.923697000000004</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>45420.764039351852</v>
+        <v>45416.1707523148</v>
       </c>
       <c r="B70" s="1">
-        <v>45420.784444444442</v>
+        <v>45416.177245370403</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D70">
-        <v>5696.03</v>
+        <v>2951.05</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="F70">
-        <v>7288.04</v>
+        <v>3408.05</v>
       </c>
       <c r="G70">
-        <v>40.727714077777797</v>
+        <v>40.639686464999997</v>
       </c>
       <c r="H70">
-        <v>-74.011295735836001</v>
+        <v>-74.009049653999995</v>
       </c>
       <c r="I70">
-        <v>40.780577990103303</v>
+        <v>40.653260000000003</v>
       </c>
       <c r="J70">
-        <v>-73.985624313354407</v>
+        <v>-73.96172</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>45423.820150462961</v>
+        <v>45416.2124189815</v>
       </c>
       <c r="B71" s="1">
-        <v>45423.830625000002</v>
+        <v>45416.218912037002</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D71">
-        <v>6960.1</v>
+        <v>5225.0200000000004</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>6432.11</v>
+        <v>5195.0600000000004</v>
       </c>
       <c r="G71">
-        <v>40.768854736999998</v>
+        <v>40.712431430999999</v>
       </c>
       <c r="H71">
-        <v>-73.961105943000007</v>
+        <v>-73.918759703999996</v>
       </c>
       <c r="I71">
-        <v>40.750756000000003</v>
+        <v>40.710709000000001</v>
       </c>
       <c r="J71">
-        <v>-73.978325999999996</v>
+        <v>-73.959723999999994</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>45423.819745370369</v>
+        <v>45416.254085648099</v>
       </c>
       <c r="B72" s="1">
-        <v>45423.830671296295</v>
+        <v>45416.260578703703</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D72">
-        <v>6960.1</v>
+        <v>6240.05</v>
       </c>
       <c r="E72" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F72">
-        <v>6432.11</v>
+        <v>5731.03</v>
       </c>
       <c r="G72">
-        <v>40.768872379999998</v>
+        <v>40.745975375</v>
       </c>
       <c r="H72">
-        <v>-73.961073279000004</v>
+        <v>-73.877547741000001</v>
       </c>
       <c r="I72">
-        <v>40.750756000000003</v>
+        <v>40.73028</v>
       </c>
       <c r="J72">
-        <v>-73.978325999999996</v>
+        <v>-73.904210000000006</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>45423.575671296298</v>
+        <v>45416.2957523148</v>
       </c>
       <c r="B73" s="1">
-        <v>45423.579328703701</v>
+        <v>45416.302245370403</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="D73">
-        <v>7265.1</v>
+        <v>6143.05</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F73">
-        <v>7386.1</v>
+        <v>6225.03</v>
       </c>
       <c r="G73">
-        <v>40.780867815000001</v>
+        <v>40.7421563682772</v>
       </c>
       <c r="H73">
-        <v>-73.952199101000005</v>
+        <v>-73.926626443862901</v>
       </c>
       <c r="I73">
-        <v>40.786258599999996</v>
+        <v>40.744459999999997</v>
       </c>
       <c r="J73">
-        <v>-73.945525790000005</v>
+        <v>-73.897639999999996</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>45431.589108796295</v>
+        <v>45416.3374189815</v>
       </c>
       <c r="B74" s="1">
-        <v>45431.598634259259</v>
+        <v>45416.343912037002</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D74">
-        <v>5696.03</v>
+        <v>7650.05</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F74">
-        <v>5114.08</v>
+        <v>7680.03</v>
       </c>
       <c r="G74">
-        <v>40.728058576999999</v>
+        <v>40.802134633000001</v>
       </c>
       <c r="H74">
-        <v>-74.011189938000001</v>
+        <v>-73.968230246999994</v>
       </c>
       <c r="I74">
-        <v>40.709957000000003</v>
+        <v>40.804212999999997</v>
       </c>
       <c r="J74">
-        <v>-74.016537999999997</v>
+        <v>-73.966991039999996</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>45419.321967592594</v>
+        <v>45416.379085648099</v>
       </c>
       <c r="B75" s="1">
-        <v>45419.327789351853</v>
+        <v>45416.385578703703</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D75">
-        <v>5696.03</v>
+        <v>6257.03</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="F75">
-        <v>5114.08</v>
+        <v>6107.08</v>
       </c>
       <c r="G75">
-        <v>40.727714077777797</v>
+        <v>40.744876339999998</v>
       </c>
       <c r="H75">
-        <v>-74.011295735836001</v>
+        <v>-73.995298849999998</v>
       </c>
       <c r="I75">
-        <v>40.709957000000003</v>
+        <v>40.740564236339502</v>
       </c>
       <c r="J75">
-        <v>-74.016537999999997</v>
+        <v>-73.998525738716097</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>45437.637499999997</v>
+        <v>45416.4207523148</v>
       </c>
       <c r="B76" s="1">
-        <v>45437.643726851849</v>
+        <v>45416.427245370403</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="D76">
-        <v>5043.0600000000004</v>
+        <v>7522.02</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F76">
-        <v>4994.1000000000004</v>
+        <v>7338.02</v>
       </c>
       <c r="G76">
-        <v>40.706359999999997</v>
+        <v>40.807384833333302</v>
       </c>
       <c r="H76">
-        <v>-73.919449999999998</v>
+        <v>-73.927202816666593</v>
       </c>
       <c r="I76">
-        <v>40.704129999999999</v>
+        <v>40.7839636</v>
       </c>
       <c r="J76">
-        <v>-73.90737</v>
+        <v>-73.947167300000004</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>45430.960555555554</v>
+        <v>45416.4624189815</v>
       </c>
       <c r="B77" s="1">
-        <v>45430.977453703701</v>
+        <v>45416.468912037002</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="D77">
-        <v>4927.04</v>
+        <v>4880.1099999999997</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F77">
-        <v>4994.1000000000004</v>
+        <v>5570.04</v>
       </c>
       <c r="G77">
-        <v>40.702306151000002</v>
+        <v>40.701686858999999</v>
       </c>
       <c r="H77">
-        <v>-73.982522130000007</v>
+        <v>-73.906412601</v>
       </c>
       <c r="I77">
-        <v>40.704129999999999</v>
+        <v>40.723529999999997</v>
       </c>
       <c r="J77">
-        <v>-73.90737</v>
+        <v>-73.89967</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>45434.666354166664</v>
+        <v>45416.504085648099</v>
       </c>
       <c r="B78" s="1">
-        <v>45434.669965277775</v>
+        <v>45416.510578703703</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="D78">
-        <v>8335.02</v>
+        <v>8012.04</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="F78">
-        <v>8272.08</v>
+        <v>7456.03</v>
       </c>
       <c r="G78">
-        <v>40.847311378000001</v>
+        <v>40.827099799999999</v>
       </c>
       <c r="H78">
-        <v>-73.899782062</v>
+        <v>-73.907472014000007</v>
       </c>
       <c r="I78">
-        <v>40.843110000000003</v>
+        <v>40.789252900000001</v>
       </c>
       <c r="J78">
-        <v>-73.891490000000005</v>
+        <v>-73.939562370000004</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>45437.911041666666</v>
+        <v>45416.5457523148</v>
       </c>
       <c r="B79" s="1">
-        <v>45437.912604166668</v>
+        <v>45416.552245370403</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="D79">
-        <v>7636.05</v>
+        <v>8316.02</v>
       </c>
       <c r="E79" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="F79">
-        <v>7716.19</v>
+        <v>8119.05</v>
       </c>
       <c r="G79">
-        <v>40.802851081</v>
+        <v>40.847304999999999</v>
       </c>
       <c r="H79">
-        <v>-73.937662958999994</v>
+        <v>-73.933290999999997</v>
       </c>
       <c r="I79">
-        <v>40.806413999999997</v>
+        <v>40.833303000000001</v>
       </c>
       <c r="J79">
-        <v>-73.936085000000006</v>
+        <v>-73.939325999999994</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>45424.15662037037</v>
+        <v>45416.5874189815</v>
       </c>
       <c r="B80" s="1">
-        <v>45424.163298611114</v>
+        <v>45416.593912037002</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="D80">
-        <v>6960.1</v>
+        <v>6570.06</v>
       </c>
       <c r="E80" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="F80">
-        <v>7288.04</v>
+        <v>6314.09</v>
       </c>
       <c r="G80">
-        <v>40.768996835000003</v>
+        <v>40.754781723000001</v>
       </c>
       <c r="H80">
-        <v>-73.961229919999994</v>
+        <v>-73.894632815999998</v>
       </c>
       <c r="I80">
-        <v>40.780577990103303</v>
+        <v>40.74841</v>
       </c>
       <c r="J80">
-        <v>-73.985624313354407</v>
+        <v>-73.875100000000003</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>45423.638622685183</v>
+        <v>45416.629085648099</v>
       </c>
       <c r="B81" s="1">
-        <v>45423.643437500003</v>
+        <v>45416.635578703703</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="D81">
-        <v>7623.13</v>
+        <v>5561.04</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="F81">
-        <v>7658.13</v>
+        <v>5561.04</v>
       </c>
       <c r="G81">
-        <v>40.801322460000002</v>
+        <v>40.72317958</v>
       </c>
       <c r="H81">
-        <v>-73.971232176000001</v>
+        <v>-73.994800119999994</v>
       </c>
       <c r="I81">
-        <v>40.803865399999999</v>
+        <v>40.72317958</v>
       </c>
       <c r="J81">
-        <v>-73.955930800000004</v>
+        <v>-73.994800119999994</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>45418.732083333336</v>
+        <v>45416.6707523148</v>
       </c>
       <c r="B82" s="1">
-        <v>45418.739270833335</v>
+        <v>45416.677245370403</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D82">
-        <v>6289.06</v>
+        <v>8319.01</v>
       </c>
       <c r="E82" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F82">
-        <v>6551.11</v>
+        <v>8319.01</v>
       </c>
       <c r="G82">
-        <v>40.746375442000001</v>
+        <v>40.846353411999999</v>
       </c>
       <c r="H82">
-        <v>-73.988508224</v>
+        <v>-73.903713107000002</v>
       </c>
       <c r="I82">
-        <v>40.753546818670699</v>
+        <v>40.846465000000002</v>
       </c>
       <c r="J82">
-        <v>-73.978965729474993</v>
+        <v>-73.903869</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>45440.753668981481</v>
+        <v>45416.7124189815</v>
       </c>
       <c r="B83" s="1">
-        <v>45440.759293981479</v>
+        <v>45416.718912037002</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="D83">
-        <v>5696.03</v>
+        <v>5746.02</v>
       </c>
       <c r="E83" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="F83">
-        <v>5114.08</v>
+        <v>5746.02</v>
       </c>
       <c r="G83">
-        <v>40.728091001999999</v>
+        <v>40.729595064999998</v>
       </c>
       <c r="H83">
-        <v>-74.011206150000007</v>
+        <v>-73.986631036000006</v>
       </c>
       <c r="I83">
-        <v>40.709957000000003</v>
+        <v>40.729708056449901</v>
       </c>
       <c r="J83">
-        <v>-74.016537999999997</v>
+        <v>-73.986597955226898</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>45414.663518518515</v>
+        <v>45416.754085648099</v>
       </c>
       <c r="B84" s="1">
-        <v>45414.703761574077</v>
+        <v>45416.760578703703</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D84">
-        <v>8315.0300000000007</v>
+        <v>3946.07</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="F84">
-        <v>6551.11</v>
+        <v>3946.07</v>
       </c>
       <c r="G84">
-        <v>40.846259355999997</v>
+        <v>40.672773837999998</v>
       </c>
       <c r="H84">
-        <v>-73.896350502999994</v>
+        <v>-73.979698299999995</v>
       </c>
       <c r="I84">
-        <v>40.753546818670699</v>
+        <v>40.672784</v>
       </c>
       <c r="J84">
-        <v>-73.978965729474993</v>
+        <v>-73.979826000000003</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>45426.574745370373</v>
+        <v>45416.7957523148</v>
       </c>
       <c r="B85" s="1">
-        <v>45426.591620370367</v>
+        <v>45416.802245370403</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D85">
-        <v>6551.02</v>
+        <v>8472.06</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F85">
-        <v>5532.01</v>
+        <v>8472.06</v>
       </c>
       <c r="G85">
-        <v>40.755252718999998</v>
+        <v>40.857088327</v>
       </c>
       <c r="H85">
-        <v>-73.980161785999996</v>
+        <v>-73.897958875</v>
       </c>
       <c r="I85">
-        <v>40.723627380000003</v>
+        <v>40.856986999999997</v>
       </c>
       <c r="J85">
-        <v>-73.999496010000001</v>
+        <v>-73.898236999999995</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>45426.755497685182</v>
+        <v>45416.8374189815</v>
       </c>
       <c r="B86" s="1">
-        <v>45426.762569444443</v>
+        <v>45416.843912037002</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D86">
-        <v>7265.1</v>
+        <v>3223.07</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F86">
-        <v>7386.1</v>
+        <v>3223.07</v>
       </c>
       <c r="G86">
-        <v>40.780526876000003</v>
+        <v>40.648830414000003</v>
       </c>
       <c r="H86">
-        <v>-73.952387213999998</v>
+        <v>-73.960848092999996</v>
       </c>
       <c r="I86">
-        <v>40.786258599999996</v>
+        <v>40.64873</v>
       </c>
       <c r="J86">
-        <v>-73.945525790000005</v>
+        <v>-73.960840000000005</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>45426.754444444443</v>
+        <v>45416.879085648099</v>
       </c>
       <c r="B87" s="1">
-        <v>45426.762546296297</v>
+        <v>45416.885578703703</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D87">
-        <v>7265.1</v>
+        <v>3246.06</v>
       </c>
       <c r="E87" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="F87">
-        <v>7386.1</v>
+        <v>3246.06</v>
       </c>
       <c r="G87">
-        <v>40.78050983</v>
+        <v>40.648615956</v>
       </c>
       <c r="H87">
-        <v>-73.952355980999997</v>
+        <v>-73.946428061000006</v>
       </c>
       <c r="I87">
-        <v>40.786258599999996</v>
+        <v>40.648679999999999</v>
       </c>
       <c r="J87">
-        <v>-73.945525790000005</v>
+        <v>-73.946349999999995</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>45426.736655092594</v>
+        <v>45416.9207523148</v>
       </c>
       <c r="B88" s="1">
-        <v>45426.741203703707</v>
+        <v>45416.927245370403</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D88">
-        <v>6498.09</v>
+        <v>3050.03</v>
       </c>
       <c r="E88" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F88">
-        <v>6551.11</v>
+        <v>3050.03</v>
       </c>
       <c r="G88">
-        <v>40.752115250000003</v>
+        <v>40.642555117999997</v>
       </c>
       <c r="H88">
-        <v>-73.968001365999996</v>
+        <v>-74.013370871999996</v>
       </c>
       <c r="I88">
-        <v>40.753546818670699</v>
+        <v>40.642408000000003</v>
       </c>
       <c r="J88">
-        <v>-73.978965729474993</v>
+        <v>-74.013317999999998</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>45440.797893518517</v>
+        <v>45416.9624189815</v>
       </c>
       <c r="B89" s="1">
-        <v>45440.79928240741</v>
+        <v>45416.968912037002</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="D89">
-        <v>6551.02</v>
+        <v>6004.07</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="F89">
-        <v>6551.11</v>
+        <v>6004.07</v>
       </c>
       <c r="G89">
-        <v>40.75500254</v>
+        <v>40.738176500000002</v>
       </c>
       <c r="H89">
-        <v>-73.980144370000005</v>
+        <v>-73.977386620000004</v>
       </c>
       <c r="I89">
-        <v>40.753546818670699</v>
+        <v>40.738176500000002</v>
       </c>
       <c r="J89">
-        <v>-73.978965729474993</v>
+        <v>-73.977386620000004</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>45429.587453703702</v>
+        <v>45417.004085648099</v>
       </c>
       <c r="B90" s="1">
-        <v>45429.589513888888</v>
+        <v>45417.010578703703</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D90">
-        <v>7265.1</v>
+        <v>3845.05</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="F90">
-        <v>7386.1</v>
+        <v>3845.05</v>
       </c>
       <c r="G90">
-        <v>40.780651689000003</v>
+        <v>40.668471574999998</v>
       </c>
       <c r="H90">
-        <v>-73.952349304999998</v>
+        <v>-73.923008203999998</v>
       </c>
       <c r="I90">
-        <v>40.786258599999996</v>
+        <v>40.668520000000001</v>
       </c>
       <c r="J90">
-        <v>-73.945525790000005</v>
+        <v>-73.922839999999994</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>45429.412766203706</v>
+        <v>45417.0457523148</v>
       </c>
       <c r="B91" s="1">
-        <v>45429.423483796294</v>
+        <v>45417.052245370403</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="D91">
-        <v>6960.1</v>
+        <v>6329.06</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="F91">
-        <v>7386.1</v>
+        <v>6329.06</v>
       </c>
       <c r="G91">
-        <v>40.768812298999997</v>
+        <v>40.747129999999999</v>
       </c>
       <c r="H91">
-        <v>-73.961278438999997</v>
+        <v>-73.855019999999996</v>
       </c>
       <c r="I91">
-        <v>40.786258599999996</v>
+        <v>40.747129999999999</v>
       </c>
       <c r="J91">
-        <v>-73.945525790000005</v>
+        <v>-73.855019999999996</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>45436.701458333337</v>
+        <v>45417.0874189815</v>
       </c>
       <c r="B92" s="1">
-        <v>45436.713495370372</v>
+        <v>45417.093912037002</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="D92">
-        <v>6551.02</v>
+        <v>7903.02</v>
       </c>
       <c r="E92" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="F92">
-        <v>6432.11</v>
+        <v>7800.03</v>
       </c>
       <c r="G92">
-        <v>40.754640459999997</v>
+        <v>40.8190344</v>
       </c>
       <c r="H92">
-        <v>-73.980632067000002</v>
+        <v>-73.956155999999993</v>
       </c>
       <c r="I92">
-        <v>40.750756000000003</v>
+        <v>40.813358000000001</v>
       </c>
       <c r="J92">
-        <v>-73.978325999999996</v>
+        <v>-73.956461000000004</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>45436.701863425929</v>
+        <v>45417.129085648099</v>
       </c>
       <c r="B93" s="1">
-        <v>45436.713576388887</v>
+        <v>45417.135578703703</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D93">
-        <v>6551.02</v>
+        <v>7068.07</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="F93">
-        <v>6432.11</v>
+        <v>6989.07</v>
       </c>
       <c r="G93">
-        <v>40.754679322000001</v>
+        <v>40.7725996921817</v>
       </c>
       <c r="H93">
-        <v>-73.980509280999996</v>
+        <v>-73.932662755250902</v>
       </c>
       <c r="I93">
-        <v>40.750756000000003</v>
+        <v>40.769917599999999</v>
       </c>
       <c r="J93">
-        <v>-73.978325999999996</v>
+        <v>-73.918405699999994</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>45433.840405092589</v>
+        <v>45417.1707523148</v>
       </c>
       <c r="B94" s="1">
-        <v>45433.870347222219</v>
+        <v>45417.177245370403</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="D94">
-        <v>4637.0600000000004</v>
+        <v>7504.19</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="F94">
-        <v>4413.08</v>
+        <v>8171.06</v>
       </c>
       <c r="G94">
-        <v>40.692418292578402</v>
+        <v>40.793222188999998</v>
       </c>
       <c r="H94">
-        <v>-73.989494740962897</v>
+        <v>-73.943258404999995</v>
       </c>
       <c r="I94">
-        <v>40.686371000000001</v>
+        <v>40.837119000000001</v>
       </c>
       <c r="J94">
-        <v>-73.993833240000001</v>
+        <v>-73.902185000000003</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>45433.707939814813</v>
+        <v>45417.2124189815</v>
       </c>
       <c r="B95" s="1">
-        <v>45433.720520833333</v>
+        <v>45417.218912037002</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="D95">
-        <v>5422.09</v>
+        <v>8029.28</v>
       </c>
       <c r="E95" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="F95">
-        <v>4611.03</v>
+        <v>7991.01</v>
       </c>
       <c r="G95">
-        <v>40.720778942000003</v>
+        <v>40.826465011000003</v>
       </c>
       <c r="H95">
-        <v>-73.999044061000006</v>
+        <v>-73.937914968000001</v>
       </c>
       <c r="I95">
-        <v>40.691960350000002</v>
+        <v>40.824795999999999</v>
       </c>
       <c r="J95">
-        <v>-73.965368510000005</v>
+        <v>-73.902420000000006</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>45414.38890046296</v>
+        <v>45417.254085648099</v>
       </c>
       <c r="B96" s="1">
-        <v>45414.392881944441</v>
+        <v>45417.260578703703</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="D96">
-        <v>6306.01</v>
+        <v>6762.04</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="F96">
-        <v>6098.12</v>
+        <v>8699.01</v>
       </c>
       <c r="G96">
-        <v>40.745685999999999</v>
+        <v>40.763326049</v>
       </c>
       <c r="H96">
-        <v>-74.005140999999995</v>
+        <v>-73.965408683000007</v>
       </c>
       <c r="I96">
-        <v>40.738660914285497</v>
+        <v>40.870495599999998</v>
       </c>
       <c r="J96">
-        <v>-73.989872932433997</v>
+        <v>-73.881875658200002</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>45432.493923611109</v>
+        <v>45417.2957523148</v>
       </c>
       <c r="B97" s="1">
-        <v>45432.514976851853</v>
+        <v>45417.302245370403</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="D97">
-        <v>7738.04</v>
+        <v>6664.05</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="F97">
-        <v>6098.12</v>
+        <v>6514.08</v>
       </c>
       <c r="G97">
-        <v>40.809252024000003</v>
+        <v>40.757488250999998</v>
       </c>
       <c r="H97">
-        <v>-73.947841643999993</v>
+        <v>-73.945145726000007</v>
       </c>
       <c r="I97">
-        <v>40.738660914285497</v>
+        <v>40.755243299999997</v>
       </c>
       <c r="J97">
-        <v>-73.989872932433997</v>
+        <v>-73.948567800000006</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>45432.685370370367</v>
+        <v>45417.3374189815</v>
       </c>
       <c r="B98" s="1">
-        <v>45432.698761574073</v>
+        <v>45417.343912037002</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D98">
-        <v>8209.01</v>
+        <v>5570.04</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="F98">
-        <v>8111.07</v>
+        <v>5887.03</v>
       </c>
       <c r="G98">
-        <v>40.838990000000003</v>
+        <v>40.723529999999997</v>
       </c>
       <c r="H98">
-        <v>-73.910899999999998</v>
+        <v>-73.89967</v>
       </c>
       <c r="I98">
-        <v>40.834060000000001</v>
+        <v>40.734810000000003</v>
       </c>
       <c r="J98">
-        <v>-73.922430000000006</v>
+        <v>-73.874309999999994</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>45438.557245370372</v>
+        <v>45417.379085648099</v>
       </c>
       <c r="B99" s="1">
-        <v>45438.570069444446</v>
+        <v>45417.385578703703</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="D99">
-        <v>5696.03</v>
+        <v>3344.02</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F99">
-        <v>5509.02</v>
+        <v>3199.01</v>
       </c>
       <c r="G99">
-        <v>40.727714077777797</v>
+        <v>40.651506900999998</v>
       </c>
       <c r="H99">
-        <v>-74.011295735836001</v>
+        <v>-73.972131490999999</v>
       </c>
       <c r="I99">
-        <v>40.72231</v>
+        <v>40.647717999999998</v>
       </c>
       <c r="J99">
-        <v>-74.010599999999997</v>
+        <v>-73.973663000000002</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>45420.314814814818</v>
+        <v>45417.4207523148</v>
       </c>
       <c r="B100" s="1">
-        <v>45420.31590277778</v>
+        <v>45417.427245370403</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D100">
-        <v>4051.01</v>
+        <v>7652.04</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="F100">
-        <v>4125.07</v>
+        <v>7823.03</v>
       </c>
       <c r="G100">
-        <v>40.675153254999998</v>
+        <v>40.801298856999999</v>
       </c>
       <c r="H100">
-        <v>-73.975209235999998</v>
+        <v>-73.939821719999998</v>
       </c>
       <c r="I100">
-        <v>40.677614699999999</v>
+        <v>40.814325599999997</v>
       </c>
       <c r="J100">
-        <v>-73.973242830000004</v>
+        <v>-73.959025499999996</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>45427.858217592591</v>
+        <v>45417.4624189815</v>
       </c>
       <c r="B101" s="1">
-        <v>45427.864942129629</v>
+        <v>45417.468912037002</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D101">
-        <v>6498.09</v>
+        <v>4028.04</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="F101">
-        <v>7204.08</v>
+        <v>4266.03</v>
       </c>
       <c r="G101">
-        <v>40.752097726000002</v>
+        <v>40.673754096000003</v>
       </c>
       <c r="H101">
-        <v>-73.968193889000005</v>
+        <v>-73.985682844999999</v>
       </c>
       <c r="I101">
-        <v>40.777945299999999</v>
+        <v>40.683116400000003</v>
       </c>
       <c r="J101">
-        <v>-73.946040999999994</v>
+        <v>-73.99785267</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>45433.779456018521</v>
+        <v>45417.504085648099</v>
       </c>
       <c r="B102" s="1">
-        <v>45433.791412037041</v>
+        <v>45417.510578703703</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D102">
-        <v>4428.0200000000004</v>
+        <v>6364.1</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="F102">
-        <v>5752.09</v>
+        <v>6398.08</v>
       </c>
       <c r="G102">
-        <v>40.687568069000001</v>
+        <v>40.749639999999999</v>
       </c>
       <c r="H102">
-        <v>-73.972743511000004</v>
+        <v>-73.988050000000001</v>
       </c>
       <c r="I102">
-        <v>40.729802999999997</v>
+        <v>40.748480234485697</v>
       </c>
       <c r="J102">
-        <v>-73.959098999999995</v>
+        <v>-73.982555866241398</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>45426.684699074074</v>
+        <v>45417.5457523148</v>
       </c>
       <c r="B103" s="1">
-        <v>45426.685902777775</v>
+        <v>45417.552245370403</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="D103">
-        <v>4051.01</v>
+        <v>7524.16</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="F103">
-        <v>4125.07</v>
+        <v>7925.04</v>
       </c>
       <c r="G103">
-        <v>40.675146838709701</v>
+        <v>40.793134809866601</v>
       </c>
       <c r="H103">
-        <v>-73.975232094526206</v>
+        <v>-73.977003693580599</v>
       </c>
       <c r="I103">
-        <v>40.677614699999999</v>
+        <v>40.820003</v>
       </c>
       <c r="J103">
-        <v>-73.973242830000004</v>
+        <v>-73.959089000000006</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>45418.324120370373</v>
+        <v>45417.5874189815</v>
       </c>
       <c r="B104" s="1">
-        <v>45418.34710648148</v>
+        <v>45417.593912037002</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D104">
-        <v>5696.03</v>
+        <v>6107.08</v>
       </c>
       <c r="E104" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="F104">
-        <v>6575.03</v>
+        <v>5288.08</v>
       </c>
       <c r="G104">
-        <v>40.727714077777797</v>
+        <v>40.740564236339502</v>
       </c>
       <c r="H104">
-        <v>-74.011295735836001</v>
+        <v>-73.998525738716097</v>
       </c>
       <c r="I104">
-        <v>40.755293000000002</v>
+        <v>40.713341842759</v>
       </c>
       <c r="J104">
-        <v>-73.967641</v>
+        <v>-74.009355157613697</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>45440.52884259259</v>
+        <v>45417.629085648099</v>
       </c>
       <c r="B105" s="1">
-        <v>45440.533622685187</v>
+        <v>45417.635578703703</v>
       </c>
       <c r="C105" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="D105">
-        <v>6551.02</v>
+        <v>5956.04</v>
       </c>
       <c r="E105" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="F105">
-        <v>6691.11</v>
+        <v>6307.07</v>
       </c>
       <c r="G105">
-        <v>40.755148648999999</v>
+        <v>40.735770000000002</v>
       </c>
       <c r="H105">
-        <v>-73.980441451000004</v>
+        <v>-73.901840000000007</v>
       </c>
       <c r="I105">
-        <v>40.759345009999997</v>
+        <v>40.747100000000003</v>
       </c>
       <c r="J105">
-        <v>-73.967596729999997</v>
+        <v>-73.902799999999999</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>45443.427928240744</v>
+        <v>45417.6707523148</v>
       </c>
       <c r="B106" s="1">
-        <v>45443.42900462963</v>
+        <v>45417.677245370403</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="D106">
-        <v>4051.01</v>
+        <v>7338.02</v>
       </c>
       <c r="E106" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="F106">
-        <v>4125.07</v>
+        <v>7020.02</v>
       </c>
       <c r="G106">
-        <v>40.675182700000001</v>
+        <v>40.784201025999998</v>
       </c>
       <c r="H106">
-        <v>-73.975121497999993</v>
+        <v>-73.947038293000006</v>
       </c>
       <c r="I106">
-        <v>40.677614699999999</v>
+        <v>40.770955538692299</v>
       </c>
       <c r="J106">
-        <v>-73.973242830000004</v>
+        <v>-73.953562080969206</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>45419.652488425927</v>
+        <v>45417.7124189815</v>
       </c>
       <c r="B107" s="1">
-        <v>45419.66611111111</v>
+        <v>45417.718912037002</v>
       </c>
       <c r="C107" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="D107">
-        <v>6551.02</v>
+        <v>5962.04</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="F107">
-        <v>5294.04</v>
+        <v>6433.01</v>
       </c>
       <c r="G107">
-        <v>40.754678726000002</v>
+        <v>40.736529468999997</v>
       </c>
       <c r="H107">
-        <v>-73.980334400999993</v>
+        <v>-73.869862080000004</v>
       </c>
       <c r="I107">
-        <v>40.714210999999999</v>
+        <v>40.75085</v>
       </c>
       <c r="J107">
-        <v>-73.981094999999996</v>
+        <v>-73.87509</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>45415.793379629627</v>
+        <v>45417.754085648099</v>
       </c>
       <c r="B108" s="1">
-        <v>45415.804340277777</v>
+        <v>45417.760578703703</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="D108">
-        <v>7265.1</v>
+        <v>7074.01</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F108">
-        <v>6575.03</v>
+        <v>6763.08</v>
       </c>
       <c r="G108">
-        <v>40.780628399999998</v>
+        <v>40.772580503999997</v>
       </c>
       <c r="H108">
-        <v>-73.952166700000006</v>
+        <v>-73.906158446999996</v>
       </c>
       <c r="I108">
-        <v>40.755293000000002</v>
+        <v>40.761339999999997</v>
       </c>
       <c r="J108">
-        <v>-73.967641</v>
+        <v>-73.866659999999996</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>45436.936736111114</v>
+        <v>45417.7957523148</v>
       </c>
       <c r="B109" s="1">
-        <v>45436.938009259262</v>
+        <v>45417.802245370403</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D109">
-        <v>6498.09</v>
+        <v>7235.13</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="F109">
-        <v>6498.1</v>
+        <v>6611.07</v>
       </c>
       <c r="G109">
-        <v>40.752068620000003</v>
+        <v>40.778195142999998</v>
       </c>
       <c r="H109">
-        <v>-73.96784384</v>
+        <v>-73.948684216000004</v>
       </c>
       <c r="I109">
-        <v>40.753230979999998</v>
+        <v>40.756764750865003</v>
       </c>
       <c r="J109">
-        <v>-73.970325169999995</v>
+        <v>-73.9997144043991</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>45442.676203703704</v>
+        <v>45417.8374189815</v>
       </c>
       <c r="B110" s="1">
-        <v>45442.68340277778</v>
+        <v>45417.843912037002</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D110">
-        <v>5195.0600000000004</v>
+        <v>7670.09</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="F110">
-        <v>5210.01</v>
+        <v>7450.05</v>
       </c>
       <c r="G110">
-        <v>40.710709000000001</v>
+        <v>40.804202318000002</v>
       </c>
       <c r="H110">
-        <v>-73.959723999999994</v>
+        <v>-73.951684356000001</v>
       </c>
       <c r="I110">
-        <v>40.713230000000003</v>
+        <v>40.794987900000002</v>
       </c>
       <c r="J110">
-        <v>-73.938940000000002</v>
+        <v>-73.933334900000006</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>45435.340300925927</v>
+        <v>45417.879085648099</v>
       </c>
       <c r="B111" s="1">
-        <v>45435.354664351849</v>
+        <v>45417.885578703703</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D111">
-        <v>7623.13</v>
+        <v>8241.07</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="F111">
-        <v>7212.05</v>
+        <v>8478.11</v>
       </c>
       <c r="G111">
-        <v>40.8013434</v>
+        <v>40.842051982999998</v>
       </c>
       <c r="H111">
-        <v>-73.971145743899996</v>
+        <v>-73.898644685999997</v>
       </c>
       <c r="I111">
-        <v>40.778012029999999</v>
+        <v>40.855652999999997</v>
       </c>
       <c r="J111">
-        <v>-73.954071490000004</v>
+        <v>-73.905528000000004</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>45435.358194444445</v>
+        <v>45417.9207523148</v>
       </c>
       <c r="B112" s="1">
-        <v>45435.360810185186</v>
+        <v>45417.927245370403</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="D112">
-        <v>4051.01</v>
+        <v>8441.0499999999993</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="F112">
-        <v>4125.07</v>
+        <v>8535.01</v>
       </c>
       <c r="G112">
-        <v>40.675341963999998</v>
+        <v>40.853560328</v>
       </c>
       <c r="H112">
-        <v>-73.975304842</v>
+        <v>-73.908720970000005</v>
       </c>
       <c r="I112">
-        <v>40.677614699999999</v>
+        <v>40.858339999999998</v>
       </c>
       <c r="J112">
-        <v>-73.973242830000004</v>
+        <v>-73.906260000000003</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>45429.493969907409</v>
+        <v>45417.9624189815</v>
       </c>
       <c r="B113" s="1">
-        <v>45429.499456018515</v>
+        <v>45417.968912037002</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D113">
-        <v>7623.13</v>
+        <v>4128.08</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F113">
-        <v>7382.04</v>
+        <v>4637.0600000000004</v>
       </c>
       <c r="G113">
-        <v>40.801354050999997</v>
+        <v>40.677710890999997</v>
       </c>
       <c r="H113">
-        <v>-73.971226572999996</v>
+        <v>-74.009365915999993</v>
       </c>
       <c r="I113">
-        <v>40.784999790000001</v>
+        <v>40.692418292578402</v>
       </c>
       <c r="J113">
-        <v>-73.972834059999997</v>
+        <v>-73.989494740962897</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>45421.708773148152</v>
+        <v>45418.004085648099</v>
       </c>
       <c r="B114" s="1">
-        <v>45421.710057870368</v>
+        <v>45418.010578703703</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="D114">
-        <v>6498.09</v>
+        <v>6552.07</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="F114">
-        <v>6498.1</v>
+        <v>6383.06</v>
       </c>
       <c r="G114">
-        <v>40.752021909</v>
+        <v>40.754373311999998</v>
       </c>
       <c r="H114">
-        <v>-73.967912077999998</v>
+        <v>-73.878108978</v>
       </c>
       <c r="I114">
-        <v>40.753230979999998</v>
+        <v>40.749519999999997</v>
       </c>
       <c r="J114">
-        <v>-73.970325169999995</v>
+        <v>-73.902649999999994</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>45419.798148148147</v>
+        <v>45418.0457523148</v>
       </c>
       <c r="B115" s="1">
-        <v>45419.809328703705</v>
+        <v>45418.052245370403</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="D115">
-        <v>5195.0600000000004</v>
+        <v>7830.03</v>
       </c>
       <c r="E115" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="F115">
-        <v>5164.05</v>
+        <v>7870.02</v>
       </c>
       <c r="G115">
-        <v>40.710716247999997</v>
+        <v>40.814289211999998</v>
       </c>
       <c r="H115">
-        <v>-73.959531545999994</v>
+        <v>-73.903725027999997</v>
       </c>
       <c r="I115">
-        <v>40.710361299225802</v>
+        <v>40.818989999999999</v>
       </c>
       <c r="J115">
-        <v>-73.965303897857595</v>
+        <v>-73.902019999999993</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>45419.798032407409</v>
+        <v>45418.0874189815</v>
       </c>
       <c r="B116" s="1">
-        <v>45419.809351851851</v>
+        <v>45418.093912037002</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="D116">
-        <v>5195.0600000000004</v>
+        <v>8041.07</v>
       </c>
       <c r="E116" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F116">
-        <v>5164.05</v>
+        <v>8012.04</v>
       </c>
       <c r="G116">
-        <v>40.710642219</v>
+        <v>40.827883</v>
       </c>
       <c r="H116">
-        <v>-73.959545969999994</v>
+        <v>-73.927110999999996</v>
       </c>
       <c r="I116">
-        <v>40.710361299225802</v>
+        <v>40.82696</v>
       </c>
       <c r="J116">
-        <v>-73.965303897857595</v>
+        <v>-73.907450999999995</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>45426.382685185185</v>
+        <v>45418.129085648099</v>
       </c>
       <c r="B117" s="1">
-        <v>45426.385949074072</v>
+        <v>45418.135578703703</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="D117">
-        <v>6079.03</v>
+        <v>5930.02</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F117">
-        <v>6498.1</v>
+        <v>6240.05</v>
       </c>
       <c r="G117">
-        <v>40.741604090000003</v>
+        <v>40.736734748000003</v>
       </c>
       <c r="H117">
-        <v>-73.975270628999994</v>
+        <v>-73.877268314000005</v>
       </c>
       <c r="I117">
-        <v>40.753230979999998</v>
+        <v>40.74615</v>
       </c>
       <c r="J117">
-        <v>-73.970325169999995</v>
+        <v>-73.877629999999996</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>45440.834837962961</v>
+        <v>45418.1707523148</v>
       </c>
       <c r="B118" s="1">
-        <v>45440.842766203707</v>
+        <v>45418.177245370403</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D118">
-        <v>7265.1</v>
+        <v>7658.13</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="F118">
-        <v>7204.08</v>
+        <v>7753.13</v>
       </c>
       <c r="G118">
-        <v>40.780662059999997</v>
+        <v>40.803865399999999</v>
       </c>
       <c r="H118">
-        <v>-73.952279567999994</v>
+        <v>-73.955930800000004</v>
       </c>
       <c r="I118">
-        <v>40.777945299999999</v>
+        <v>40.810792200000002</v>
       </c>
       <c r="J118">
-        <v>-73.946040999999994</v>
+        <v>-73.943068100000005</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>45419.344629629632</v>
+        <v>45418.2124189815</v>
       </c>
       <c r="B119" s="1">
-        <v>45419.348020833335</v>
+        <v>45418.218912037002</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="D119">
-        <v>6079.03</v>
+        <v>4904.03</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F119">
-        <v>6498.1</v>
+        <v>5225.0200000000004</v>
       </c>
       <c r="G119">
-        <v>40.741568923000003</v>
+        <v>40.702039999999997</v>
       </c>
       <c r="H119">
-        <v>-73.975290537000006</v>
+        <v>-73.892880000000005</v>
       </c>
       <c r="I119">
-        <v>40.753230979999998</v>
+        <v>40.71246</v>
       </c>
       <c r="J119">
-        <v>-73.970325169999995</v>
+        <v>-73.918729999999996</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>45432.938298611109</v>
+        <v>45418.254085648099</v>
       </c>
       <c r="B120" s="1">
-        <v>45432.946157407408</v>
+        <v>45418.260578703703</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D120">
-        <v>8335.02</v>
+        <v>6292.03</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F120">
-        <v>8639.01</v>
+        <v>6185.07</v>
       </c>
       <c r="G120">
-        <v>40.847228645999998</v>
+        <v>40.745620000000002</v>
       </c>
       <c r="H120">
-        <v>-73.899832129000004</v>
+        <v>-73.924019999999999</v>
       </c>
       <c r="I120">
-        <v>40.866898999999997</v>
+        <v>40.744365319186699</v>
       </c>
       <c r="J120">
-        <v>-73.901942000000005</v>
+        <v>-73.931723982095704</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>45428.771585648145</v>
+        <v>45418.2957523148</v>
       </c>
       <c r="B121" s="1">
-        <v>45428.778020833335</v>
+        <v>45418.302245370403</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="D121">
-        <v>5442.09</v>
+        <v>6225.03</v>
       </c>
       <c r="E121" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="F121">
-        <v>5752.09</v>
+        <v>6143.05</v>
       </c>
       <c r="G121">
-        <v>40.720840000000003</v>
+        <v>40.744459999999997</v>
       </c>
       <c r="H121">
-        <v>-73.948440000000005</v>
+        <v>-73.897639999999996</v>
       </c>
       <c r="I121">
-        <v>40.729802999999997</v>
+        <v>40.7421563682772</v>
       </c>
       <c r="J121">
-        <v>-73.959098999999995</v>
+        <v>-73.926626443862901</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>45437.616597222222</v>
+        <v>45418.3374189815</v>
       </c>
       <c r="B122" s="1">
-        <v>45437.626331018517</v>
+        <v>45418.343912037002</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="D122">
-        <v>4161.01</v>
+        <v>8766.0300000000007</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F122">
-        <v>4824.03</v>
+        <v>8209.01</v>
       </c>
       <c r="G122">
-        <v>40.678600000000003</v>
+        <v>40.875554919000002</v>
       </c>
       <c r="H122">
-        <v>-73.903689999999997</v>
+        <v>-73.886271833999999</v>
       </c>
       <c r="I122">
-        <v>40.699303999999998</v>
+        <v>40.838990000000003</v>
       </c>
       <c r="J122">
-        <v>-73.923044000000004</v>
+        <v>-73.910899999999998</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>45437.651921296296</v>
+        <v>45418.379085648099</v>
       </c>
       <c r="B123" s="1">
-        <v>45437.654722222222</v>
+        <v>45418.385578703703</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="D123">
-        <v>6960.1</v>
+        <v>8507.02</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="F123">
-        <v>7212.05</v>
+        <v>8563.06</v>
       </c>
       <c r="G123">
-        <v>40.768912911000001</v>
+        <v>40.858925819</v>
       </c>
       <c r="H123">
-        <v>-73.962184071999999</v>
+        <v>-73.923085212999993</v>
       </c>
       <c r="I123">
-        <v>40.778012029999999</v>
+        <v>40.861381999999999</v>
       </c>
       <c r="J123">
-        <v>-73.954071490000004</v>
+        <v>-73.925590999999997</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>45434.852453703701</v>
+        <v>45418.4207523148</v>
       </c>
       <c r="B124" s="1">
-        <v>45434.869791666664</v>
+        <v>45418.427245370403</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="D124">
-        <v>7623.13</v>
+        <v>3771.06</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="F124">
-        <v>7382.04</v>
+        <v>3347.03</v>
       </c>
       <c r="G124">
-        <v>40.801437378000003</v>
+        <v>40.666368961000003</v>
       </c>
       <c r="H124">
-        <v>-73.971117973000005</v>
+        <v>-73.989146829000006</v>
       </c>
       <c r="I124">
-        <v>40.784999790000001</v>
+        <v>40.651353999999998</v>
       </c>
       <c r="J124">
-        <v>-73.972834059999997</v>
+        <v>-74.007167999999993</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>45428.93178240741</v>
+        <v>45418.4624189815</v>
       </c>
       <c r="B125" s="1">
-        <v>45428.945613425924</v>
+        <v>45418.468912037002</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="D125">
-        <v>6498.09</v>
+        <v>5176.04</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="F125">
-        <v>7204.08</v>
+        <v>5138.03</v>
       </c>
       <c r="G125">
-        <v>40.752068620000003</v>
+        <v>40.710706829999999</v>
       </c>
       <c r="H125">
-        <v>-73.96784384</v>
+        <v>-73.905299186999997</v>
       </c>
       <c r="I125">
-        <v>40.777945299999999</v>
+        <v>40.711069999999999</v>
       </c>
       <c r="J125">
-        <v>-73.946040999999994</v>
+        <v>-73.903000000000006</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>45426.682083333333</v>
+        <v>45418.504085648099</v>
       </c>
       <c r="B126" s="1">
-        <v>45426.684606481482</v>
+        <v>45418.510578703703</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D126">
-        <v>6498.09</v>
+        <v>6323.04</v>
       </c>
       <c r="E126" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F126">
-        <v>6691.11</v>
+        <v>6198.03</v>
       </c>
       <c r="G126">
-        <v>40.752102016999999</v>
+        <v>40.748067497999997</v>
       </c>
       <c r="H126">
-        <v>-73.967928409999999</v>
+        <v>-73.882078886000002</v>
       </c>
       <c r="I126">
-        <v>40.759345009999997</v>
+        <v>40.744630000000001</v>
       </c>
       <c r="J126">
-        <v>-73.967596729999997</v>
+        <v>-73.873859999999993</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>45436.748055555552</v>
+        <v>45418.5457523148</v>
       </c>
       <c r="B127" s="1">
-        <v>45436.760740740741</v>
+        <v>45418.552245370403</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="D127">
-        <v>5195.0600000000004</v>
+        <v>3140.09</v>
       </c>
       <c r="E127" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="F127">
-        <v>5159.04</v>
+        <v>3140.09</v>
       </c>
       <c r="G127">
-        <v>40.710665464000002</v>
+        <v>40.644935607999997</v>
       </c>
       <c r="H127">
-        <v>-73.959517360000007</v>
+        <v>-73.954809189000002</v>
       </c>
       <c r="I127">
-        <v>40.711731069999999</v>
+        <v>40.644910000000003</v>
       </c>
       <c r="J127">
-        <v>-73.991930429999996</v>
+        <v>-73.95487</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>45443.706944444442</v>
+        <v>45418.5874189815</v>
       </c>
       <c r="B128" s="1">
-        <v>45443.713518518518</v>
+        <v>45418.593912037002</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="D128">
-        <v>6960.1</v>
+        <v>8491.07</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="F128">
-        <v>6498.1</v>
+        <v>8491.07</v>
       </c>
       <c r="G128">
-        <v>40.768736869999998</v>
+        <v>40.857157813919002</v>
       </c>
       <c r="H128">
-        <v>-73.961199449999995</v>
+        <v>-73.927173614501896</v>
       </c>
       <c r="I128">
-        <v>40.753230979999998</v>
+        <v>40.857157813919002</v>
       </c>
       <c r="J128">
-        <v>-73.970325169999995</v>
+        <v>-73.927173614501896</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>45423.634004629632</v>
+        <v>45418.629085648099</v>
       </c>
       <c r="B129" s="1">
-        <v>45423.674178240741</v>
+        <v>45418.635578703703</v>
       </c>
       <c r="C129" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D129">
-        <v>7286.05</v>
+        <v>6332.06</v>
       </c>
       <c r="E129" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F129">
-        <v>7286.05</v>
+        <v>6718.02</v>
       </c>
       <c r="G129">
-        <v>40.7817212</v>
+        <v>40.749098300999997</v>
       </c>
       <c r="H129">
-        <v>-73.945939999999993</v>
+        <v>-73.891969204000006</v>
       </c>
       <c r="I129">
-        <v>40.7817212</v>
+        <v>40.758859999999999</v>
       </c>
       <c r="J129">
-        <v>-73.945939999999993</v>
+        <v>-73.890810000000002</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>45431.371319444443</v>
+        <v>45418.6707523148</v>
       </c>
       <c r="B130" s="1">
-        <v>45431.376377314817</v>
+        <v>45418.677245370403</v>
       </c>
       <c r="C130" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="D130">
-        <v>7286.05</v>
+        <v>8590.01</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="F130">
-        <v>6991.12</v>
+        <v>8579.09</v>
       </c>
       <c r="G130">
-        <v>40.7817212</v>
+        <v>40.862864375000001</v>
       </c>
       <c r="H130">
-        <v>-73.945939999999993</v>
+        <v>-73.907284141000005</v>
       </c>
       <c r="I130">
-        <v>40.771129270000003</v>
+        <v>40.862637999999997</v>
       </c>
       <c r="J130">
-        <v>-73.957722970000006</v>
+        <v>-73.920060000000007</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>45413.262291666666</v>
+        <v>45418.7124189815</v>
       </c>
       <c r="B131" s="1">
-        <v>45413.285590277781</v>
+        <v>45418.718912037002</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="D131">
-        <v>3882.05</v>
+        <v>4965.01</v>
       </c>
       <c r="E131" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F131">
-        <v>6839.04</v>
+        <v>4611.03</v>
       </c>
       <c r="G131">
-        <v>40.669635534000001</v>
+        <v>40.704104065999999</v>
       </c>
       <c r="H131">
-        <v>-73.988973141000002</v>
+        <v>-73.948161839999997</v>
       </c>
       <c r="I131">
-        <v>40.7630259428051</v>
+        <v>40.691960350000002</v>
       </c>
       <c r="J131">
-        <v>-73.972095251083303</v>
+        <v>-73.965368510000005</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>45438.636944444443</v>
+        <v>45418.754085648099</v>
       </c>
       <c r="B132" s="1">
-        <v>45438.646886574075</v>
+        <v>45418.760578703703</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="D132">
-        <v>4374.01</v>
+        <v>4856.05</v>
       </c>
       <c r="E132" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="F132">
-        <v>4374.01</v>
+        <v>5270.05</v>
       </c>
       <c r="G132">
-        <v>40.685125595154098</v>
+        <v>40.701116562000003</v>
       </c>
       <c r="H132">
-        <v>-74.025353193282996</v>
+        <v>-73.918030857999995</v>
       </c>
       <c r="I132">
-        <v>40.685125595154098</v>
+        <v>40.714066670000001</v>
       </c>
       <c r="J132">
-        <v>-74.025353193282996</v>
+        <v>-73.992939109999995</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>45420.393460648149</v>
+        <v>45418.7957523148</v>
       </c>
       <c r="B133" s="1">
-        <v>45420.402650462966</v>
+        <v>45418.802245370403</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="D133">
-        <v>7524.09</v>
+        <v>5470.02</v>
       </c>
       <c r="E133" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F133">
-        <v>6839.04</v>
+        <v>5288.09</v>
       </c>
       <c r="G133">
-        <v>40.794465899000002</v>
+        <v>40.7199611811713</v>
       </c>
       <c r="H133">
-        <v>-73.974400400999997</v>
+        <v>-74.008443206548606</v>
       </c>
       <c r="I133">
-        <v>40.7630259428051</v>
+        <v>40.71473993</v>
       </c>
       <c r="J133">
-        <v>-73.972095251083303</v>
+        <v>-74.009106270000004</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>45416.735844907409</v>
+        <v>45418.8374189815</v>
       </c>
       <c r="B134" s="1">
-        <v>45416.752349537041</v>
+        <v>45418.843912037002</v>
       </c>
       <c r="C134" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="D134">
-        <v>6332.09</v>
+        <v>5944.01</v>
       </c>
       <c r="E134" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="F134">
-        <v>5291.05</v>
+        <v>6170.09</v>
       </c>
       <c r="G134">
-        <v>40.746811747999999</v>
+        <v>40.735818743999999</v>
       </c>
       <c r="H134">
-        <v>-73.890458344999999</v>
+        <v>-73.958683968000003</v>
       </c>
       <c r="I134">
-        <v>40.715142999999998</v>
+        <v>40.742930200000004</v>
       </c>
       <c r="J134">
-        <v>-73.944507000000002</v>
+        <v>-73.952037000000004</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>45415.866689814815</v>
+        <v>45418.879085648099</v>
       </c>
       <c r="B135" s="1">
-        <v>45415.866956018515</v>
+        <v>45418.885578703703</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="D135">
-        <v>7524.09</v>
+        <v>3431.02</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="F135">
-        <v>7524.09</v>
+        <v>3341.06</v>
       </c>
       <c r="G135">
-        <v>40.794312239</v>
+        <v>40.654569268000003</v>
       </c>
       <c r="H135">
-        <v>-73.973995923999993</v>
+        <v>-73.947056532000005</v>
       </c>
       <c r="I135">
-        <v>40.794165399999997</v>
+        <v>40.651589999999999</v>
       </c>
       <c r="J135">
-        <v>-73.974124000000003</v>
+        <v>-73.93535</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>45440.513692129629</v>
+        <v>45418.9207523148</v>
       </c>
       <c r="B136" s="1">
-        <v>45440.513773148145</v>
+        <v>45418.927245370403</v>
       </c>
       <c r="C136" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D136">
-        <v>4060.09</v>
+        <v>5659.11</v>
       </c>
       <c r="E136" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F136">
-        <v>4060.09</v>
+        <v>5947.04</v>
       </c>
       <c r="G136">
-        <v>40.675162200000003</v>
+        <v>40.727675437999999</v>
       </c>
       <c r="H136">
-        <v>-73.9814832</v>
+        <v>-73.979902506000002</v>
       </c>
       <c r="I136">
-        <v>40.675162200000003</v>
+        <v>40.735444999999999</v>
       </c>
       <c r="J136">
-        <v>-73.9814832</v>
+        <v>-73.994309999999999</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>45430.715196759258</v>
+        <v>45418.9624189815</v>
       </c>
       <c r="B137" s="1">
-        <v>45430.719236111108</v>
+        <v>45418.968912037002</v>
       </c>
       <c r="C137" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="D137">
-        <v>6332.09</v>
+        <v>4339.01</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F137">
-        <v>6332.09</v>
+        <v>4531.05</v>
       </c>
       <c r="G137">
-        <v>40.7468</v>
+        <v>40.684989399999999</v>
       </c>
       <c r="H137">
-        <v>-73.890379999999993</v>
+        <v>-73.994403289999994</v>
       </c>
       <c r="I137">
-        <v>40.7468</v>
+        <v>40.690892720000001</v>
       </c>
       <c r="J137">
-        <v>-73.890379999999993</v>
+        <v>-73.996123490000002</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>45426.480590277781</v>
+        <v>45419.004085648099</v>
       </c>
       <c r="B138" s="1">
-        <v>45426.482708333337</v>
+        <v>45419.010578703703</v>
       </c>
       <c r="C138" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="D138">
-        <v>4060.09</v>
+        <v>7528.31</v>
       </c>
       <c r="E138" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F138">
-        <v>3914.02</v>
+        <v>7617.07</v>
       </c>
       <c r="G138">
-        <v>40.675162200000003</v>
+        <v>40.79334867</v>
       </c>
       <c r="H138">
-        <v>-73.9814832</v>
+        <v>-73.949292302000003</v>
       </c>
       <c r="I138">
-        <v>40.670492199999998</v>
+        <v>40.799484</v>
       </c>
       <c r="J138">
-        <v>-73.985416749999999</v>
+        <v>-73.955613</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>45426.488703703704</v>
+        <v>45419.0457523148</v>
       </c>
       <c r="B139" s="1">
-        <v>45426.491041666668</v>
+        <v>45419.052245370403</v>
       </c>
       <c r="C139" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="D139">
-        <v>3914.02</v>
+        <v>5371.07</v>
       </c>
       <c r="E139" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="F139">
-        <v>4060.09</v>
+        <v>5902.07</v>
       </c>
       <c r="G139">
-        <v>40.670492199999998</v>
+        <v>40.717590094000002</v>
       </c>
       <c r="H139">
-        <v>-73.985416749999999</v>
+        <v>-73.949116468</v>
       </c>
       <c r="I139">
-        <v>40.675162200000003</v>
+        <v>40.735216999999999</v>
       </c>
       <c r="J139">
-        <v>-73.9814832</v>
+        <v>-73.954926</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>45431.830150462964</v>
+        <v>45419.0874189815</v>
       </c>
       <c r="B140" s="1">
-        <v>45431.836377314816</v>
+        <v>45419.093912037002</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="D140">
-        <v>6339.06</v>
+        <v>6495.17</v>
       </c>
       <c r="E140" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="F140">
-        <v>6339.06</v>
+        <v>5676.04</v>
       </c>
       <c r="G140">
-        <v>40.747969746999999</v>
+        <v>40.752116203</v>
       </c>
       <c r="H140">
-        <v>-74.001265525999997</v>
+        <v>-73.93329215</v>
       </c>
       <c r="I140">
-        <v>40.747832605837701</v>
+        <v>40.726930000000003</v>
       </c>
       <c r="J140">
-        <v>-74.000572264358198</v>
+        <v>-73.958629999999999</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>45431.566053240742</v>
+        <v>45419.129085648099</v>
       </c>
       <c r="B141" s="1">
-        <v>45431.567280092589</v>
+        <v>45419.135578703703</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="D141">
-        <v>7524.09</v>
+        <v>5964.01</v>
       </c>
       <c r="E141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F141">
-        <v>7524.09</v>
+        <v>5436.11</v>
       </c>
       <c r="G141">
-        <v>40.794269085000003</v>
+        <v>40.736196700000001</v>
       </c>
       <c r="H141">
-        <v>-73.973984361000007</v>
+        <v>-74.008592070000006</v>
       </c>
       <c r="I141">
-        <v>40.794165399999997</v>
+        <v>40.719786354528203</v>
       </c>
       <c r="J141">
-        <v>-73.974124000000003</v>
+        <v>-73.978716284036594</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>45420.960729166669</v>
+        <v>45419.1707523148</v>
       </c>
       <c r="B142" s="1">
-        <v>45420.98878472222</v>
+        <v>45419.177245370403</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="D142">
-        <v>5140.0600000000004</v>
+        <v>6608.09</v>
       </c>
       <c r="E142" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F142">
-        <v>5140.0600000000004</v>
+        <v>6313.1</v>
       </c>
       <c r="G142">
-        <v>40.710022211000002</v>
+        <v>40.756264999999999</v>
       </c>
       <c r="H142">
-        <v>-73.940120458999999</v>
+        <v>-73.964179000000001</v>
       </c>
       <c r="I142">
-        <v>40.709896999999998</v>
+        <v>40.747573958954803</v>
       </c>
       <c r="J142">
-        <v>-73.940079999999995</v>
+        <v>-73.978800773620605</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>45424.685381944444</v>
+        <v>45419.2124189815</v>
       </c>
       <c r="B143" s="1">
-        <v>45424.690416666665</v>
+        <v>45419.218912037002</v>
       </c>
       <c r="C143" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="D143">
-        <v>8510.02</v>
+        <v>6629.06</v>
       </c>
       <c r="E143" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F143">
-        <v>8510.02</v>
+        <v>6907.03</v>
       </c>
       <c r="G143">
-        <v>40.858426094000002</v>
+        <v>40.755658746000002</v>
       </c>
       <c r="H143">
-        <v>-73.896328925999995</v>
+        <v>-73.912777305000006</v>
       </c>
       <c r="I143">
-        <v>40.858497999999997</v>
+        <v>40.765752999999997</v>
       </c>
       <c r="J143">
-        <v>-73.896370000000005</v>
+        <v>-73.906760000000006</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>45415.543842592589</v>
+        <v>45419.254085648099</v>
       </c>
       <c r="B144" s="1">
-        <v>45415.54482638889</v>
+        <v>45419.260578703703</v>
       </c>
       <c r="C144" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="D144">
-        <v>3504.02</v>
+        <v>4416.1000000000004</v>
       </c>
       <c r="E144" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F144">
-        <v>3504.02</v>
+        <v>6098.12</v>
       </c>
       <c r="G144">
-        <v>40.657817602000002</v>
+        <v>40.687120198999999</v>
       </c>
       <c r="H144">
-        <v>-73.947313070000007</v>
+        <v>-73.930173515999996</v>
       </c>
       <c r="I144">
-        <v>40.657940000000004</v>
+        <v>40.738660914285497</v>
       </c>
       <c r="J144">
-        <v>-73.94735</v>
+        <v>-73.989872932433997</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>45428.767928240741</v>
+        <v>45419.2957523148</v>
       </c>
       <c r="B145" s="1">
-        <v>45428.769050925926</v>
+        <v>45419.302245370403</v>
       </c>
       <c r="C145" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="D145">
-        <v>6750.16</v>
+        <v>5938.01</v>
       </c>
       <c r="E145" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F145">
-        <v>6711.13</v>
+        <v>5593.02</v>
       </c>
       <c r="G145">
-        <v>40.760216831999998</v>
+        <v>40.736475824999999</v>
       </c>
       <c r="H145">
-        <v>-73.922430754000004</v>
+        <v>-73.984489083</v>
       </c>
       <c r="I145">
-        <v>40.759057954185799</v>
+        <v>40.725028760000001</v>
       </c>
       <c r="J145">
-        <v>-73.918975442647906</v>
+        <v>-73.990696560000004</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>45428.355590277781</v>
+        <v>45419.3374189815</v>
       </c>
       <c r="B146" s="1">
-        <v>45428.357430555552</v>
+        <v>45419.343912037002</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="D146">
-        <v>6711.13</v>
+        <v>8416.07</v>
       </c>
       <c r="E146" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="F146">
-        <v>6563.12</v>
+        <v>8416.07</v>
       </c>
       <c r="G146">
-        <v>40.759127616999997</v>
+        <v>40.852490187000001</v>
       </c>
       <c r="H146">
-        <v>-73.918890118999997</v>
+        <v>-73.934757113000003</v>
       </c>
       <c r="I146">
-        <v>40.755732700000003</v>
+        <v>40.852538000000003</v>
       </c>
       <c r="J146">
-        <v>-73.923661100000004</v>
+        <v>-73.93441</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>45433.135266203702</v>
+        <v>45419.379085648099</v>
       </c>
       <c r="B147" s="1">
-        <v>45433.136967592596</v>
+        <v>45419.385578703703</v>
       </c>
       <c r="C147" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="D147">
-        <v>4060.09</v>
+        <v>6053.01</v>
       </c>
       <c r="E147" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="F147">
-        <v>3914.02</v>
+        <v>6053.01</v>
       </c>
       <c r="G147">
-        <v>40.675338625999998</v>
+        <v>40.7408</v>
       </c>
       <c r="H147">
-        <v>-73.981540561000003</v>
+        <v>-73.849779999999996</v>
       </c>
       <c r="I147">
-        <v>40.670492199999998</v>
+        <v>40.7408</v>
       </c>
       <c r="J147">
-        <v>-73.985416749999999</v>
+        <v>-73.849779999999996</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>45434.639791666668</v>
+        <v>45419.4207523148</v>
       </c>
       <c r="B148" s="1">
-        <v>45434.641087962962</v>
+        <v>45419.427245370403</v>
       </c>
       <c r="C148" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="D148">
-        <v>5140.0600000000004</v>
+        <v>6599.01</v>
       </c>
       <c r="E148" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="F148">
-        <v>5140.0600000000004</v>
+        <v>6599.01</v>
       </c>
       <c r="G148">
-        <v>40.709944725</v>
+        <v>40.757200241</v>
       </c>
       <c r="H148">
-        <v>-73.940075516999997</v>
+        <v>-73.953518270999993</v>
       </c>
       <c r="I148">
-        <v>40.709896999999998</v>
+        <v>40.757283999999999</v>
       </c>
       <c r="J148">
-        <v>-73.940079999999995</v>
+        <v>-73.953599999999994</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>45442.398599537039</v>
+        <v>45419.4624189815</v>
       </c>
       <c r="B149" s="1">
-        <v>45442.416666666664</v>
+        <v>45419.468912037002</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="D149">
-        <v>3811.05</v>
+        <v>7809.13</v>
       </c>
       <c r="E149" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="F149">
-        <v>3811.05</v>
+        <v>7756.1</v>
       </c>
       <c r="G149">
-        <v>40.666196999999997</v>
+        <v>40.814489999999999</v>
       </c>
       <c r="H149">
-        <v>-73.992465999999993</v>
+        <v>-73.936153000000004</v>
       </c>
       <c r="I149">
-        <v>40.666196999999997</v>
+        <v>40.8114323</v>
       </c>
       <c r="J149">
-        <v>-73.992465999999993</v>
+        <v>-73.951877600000003</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>45437.488703703704</v>
+        <v>45419.504085648099</v>
       </c>
       <c r="B150" s="1">
-        <v>45437.490694444445</v>
+        <v>45419.510578703703</v>
       </c>
       <c r="C150" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="D150">
-        <v>3914.02</v>
+        <v>8559.0400000000009</v>
       </c>
       <c r="E150" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="F150">
-        <v>3882.05</v>
+        <v>8559.0400000000009</v>
       </c>
       <c r="G150">
-        <v>40.670477748000003</v>
+        <v>40.861600398999997</v>
       </c>
       <c r="H150">
-        <v>-73.98558104</v>
+        <v>-73.918648838999999</v>
       </c>
       <c r="I150">
-        <v>40.669673563703398</v>
+        <v>40.861698835078599</v>
       </c>
       <c r="J150">
-        <v>-73.988989081837602</v>
+        <v>-73.918557018041597</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/202405-citibike-tripdata_1.xlsx
+++ b/Dataset/202405-citibike-tripdata_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bike-Sharing-Simulation\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416933B-4887-4344-B8A0-CA1B96DA0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6819386-A3C4-4120-BA05-E3228979D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{AD6143DE-A902-4B58-8481-1850D1AFC164}"/>
+    <workbookView xWindow="2556" yWindow="3012" windowWidth="16440" windowHeight="12120" xr2:uid="{AD6143DE-A902-4B58-8481-1850D1AFC164}"/>
   </bookViews>
   <sheets>
     <sheet name="202405-citibike-tripdata_1" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1247,7 +1247,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1295,10 +1295,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1652,13 +1652,13 @@
   <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
@@ -1669,10 +1669,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
